--- a/crawlers/output_labeled.xlsx
+++ b/crawlers/output_labeled.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G140"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Binance lifts block on bitcoin withdrawals amid heavy volumes - Reuters</t>
+          <t>Tether Reports $1.48B Profit in Q1, Reveals Bitcoin, Gold Reserves - CoinDesk</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiY2h0dHBzOi8vd3d3LnJldXRlcnMuY29tL3RlY2hub2xvZ3kvYmluYW5jZS1hZ2Fpbi10ZW1wb3JhcmlseS1jbG9zZXMtYml0Y29pbi13aXRoZHJhd2Fscy0yMDIzLTA1LTA4L9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMibGh0dHBzOi8vd3d3LmNvaW5kZXNrLmNvbS9idXNpbmVzcy8yMDIzLzA1LzEwL3RldGhlci1yZXBvcnRzLTE0OGItcHJvZml0LWluLXExLXJldmVhbHMtYml0Y29pbi1nb2xkLXJlc2VydmVzL9IBe2h0dHBzOi8vd3d3LmNvaW5kZXNrLmNvbS9idXNpbmVzcy8yMDIzLzA1LzEwL3RldGhlci1yZXBvcnRzLTE0OGItcHJvZml0LWluLXExLXJldmVhbHMtYml0Y29pbi1nb2xkLXJlc2VydmVzLz9vdXRwdXRUeXBlPWFtcA?oc=5</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 08:22:00 GMT</t>
+          <t>Wed, 10 May 2023 16:10:00 GMT</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Reuters</t>
+          <t>CoinDesk</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -511,22 +511,22 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Up More Than 200% In 2023, This Bitcoin Mining Stock Is Still a Screaming Buy - The Motley Fool</t>
+          <t>What bitcoin investors need to know about 'Ordinals' - CNBC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiXWh0dHBzOi8vd3d3LmZvb2wuY29tL2ludmVzdGluZy8yMDIzLzA1LzA4L3VwLW1vcmUtdGhhbi0yMDAtaW4tMjAyMy10aGlzLWJpdGNvaW4tbWluaW5nLXN0b2NrL9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiV2h0dHBzOi8vd3d3LmNuYmMuY29tLzIwMjMvMDUvMTAvd2hhdC1iaXRjb2luLWludmVzdG9ycy1uZWVkLXRvLWtub3ctYWJvdXQtb3JkaW5hbHMuaHRtbNIBAA?oc=5</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:11:00 GMT</t>
+          <t>Wed, 10 May 2023 14:35:06 GMT</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>The Motley Fool</t>
+          <t>CNBC</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -546,22 +546,22 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Controversy Rises as Bitcoin Transaction Fees Continue Climb to Historical Highs - Yahoo Finance</t>
+          <t>Urbit, a Network Older and Weirder Than Bitcoin, Finally Turns Toward Growth - CoinDesk</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiWGh0dHBzOi8vZmluYW5jZS55YWhvby5jb20vbmV3cy9jb250cm92ZXJzeS1yaXNlcy1iaXRjb2luLXRyYW5zYWN0aW9uLWZlZXMtMDIyNjA4Mzc4Lmh0bWzSAWBodHRwczovL2ZpbmFuY2UueWFob28uY29tL2FtcGh0bWwvbmV3cy9jb250cm92ZXJzeS1yaXNlcy1iaXRjb2luLXRyYW5zYWN0aW9uLWZlZXMtMDIyNjA4Mzc4Lmh0bWw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMidGh0dHBzOi8vd3d3LmNvaW5kZXNrLmNvbS90ZWNoLzIwMjMvMDUvMTAvdXJiaXQtYS1uZXR3b3JrLW9sZGVyLWFuZC13ZWlyZGVyLXRoYW4tYml0Y29pbi1maW5hbGx5LXR1cm5zLXRvd2FyZC1ncm93dGgv0gGDAWh0dHBzOi8vd3d3LmNvaW5kZXNrLmNvbS90ZWNoLzIwMjMvMDUvMTAvdXJiaXQtYS1uZXR3b3JrLW9sZGVyLWFuZC13ZWlyZGVyLXRoYW4tYml0Y29pbi1maW5hbGx5LXR1cm5zLXRvd2FyZC1ncm93dGgvP291dHB1dFR5cGU9YW1w?oc=5</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 02:26:00 GMT</t>
+          <t>Wed, 10 May 2023 15:54:00 GMT</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Yahoo Finance</t>
+          <t>CoinDesk</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -581,22 +581,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>News Explorer — Attack on Bitcoin' Claims Circulate as Transaction Fees Climb Higher - Decrypt</t>
+          <t>Memecoin Rally Could Bode Well for Bitcoin Network Startups - The Information</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMieGh0dHBzOi8vZGVjcnlwdC5jby9uZXdzLWV4cGxvcmVyP3Bpbm5lZD0xNjE2OTgmdGl0bGU9YXR0YWNrLW9uLWJpdGNvaW4tY2xhaW1zLWNpcmN1bGF0ZS1hcy10cmFuc2FjdGlvbi1mZWVzLWNsaW1iLWhpZ2hlctIBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiY2h0dHBzOi8vd3d3LnRoZWluZm9ybWF0aW9uLmNvbS9hcnRpY2xlcy9tZW1lY29pbi1yYWxseS1jb3VsZC1ib2RlLXdlbGwtZm9yLWJpdGNvaW4tbmV0d29yay1zdGFydHVwc9IBAA?oc=5</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sun, 07 May 2023 23:33:04 GMT</t>
+          <t>Wed, 10 May 2023 16:00:00 GMT</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Decrypt</t>
+          <t>The Information</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -616,22 +616,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Mike McGlone Shares Insight into Next Direction for Bitcoin Price - U.Today</t>
+          <t>Bitcoin eyes $28K push as traders demand CPI day BTC price volatility - Cointelegraph</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiUWh0dHBzOi8vdS50b2RheS9taWtlLW1jZ2xvbmUtc2hhcmVzLWluc2lnaHQtaW50by1uZXh0LWRpcmVjdGlvbi1mb3ItYml0Y29pbi1wcmljZdIBVWh0dHBzOi8vdS50b2RheS9taWtlLW1jZ2xvbmUtc2hhcmVzLWluc2lnaHQtaW50by1uZXh0LWRpcmVjdGlvbi1mb3ItYml0Y29pbi1wcmljZT9hbXA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiY2h0dHBzOi8vY29pbnRlbGVncmFwaC5jb20vbmV3cy9iaXRjb2luLWV5ZXMtMjhrLXB1c2gtYXMtdHJhZGVycy1kZW1hbmQtY3BpLWRheS1idGMtcHJpY2Utdm9sYXRpbGl0edIBZ2h0dHBzOi8vY29pbnRlbGVncmFwaC5jb20vbmV3cy9iaXRjb2luLWV5ZXMtMjhrLXB1c2gtYXMtdHJhZGVycy1kZW1hbmQtY3BpLWRheS1idGMtcHJpY2Utdm9sYXRpbGl0eS9hbXA?oc=5</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:37:36 GMT</t>
+          <t>Wed, 10 May 2023 08:38:55 GMT</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>U.Today</t>
+          <t>Cointelegraph</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,22 +651,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bitcoin, Ethereum Technical Analysis: BTC Extends Declines, as ... - Bitcoin News</t>
+          <t>Bitcoin cracks $28K on CPI amid warning US inflation ‘highly elevated’ - Cointelegraph</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMigwFodHRwczovL25ld3MuYml0Y29pbi5jb20vYml0Y29pbi1ldGhlcmV1bS10ZWNobmljYWwtYW5hbHlzaXMtYnRjLWV4dGVuZHMtZGVjbGluZXMtYXMtbWFya2V0cy1jb250aW51ZS10by1yZWFjdC10by1ub25mYXJtLXBheXJvbGxzL9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiYmh0dHBzOi8vY29pbnRlbGVncmFwaC5jb20vbmV3cy9iaXRjb2luLWNyYWNrcy0yOGstb24tY3BpLWFtaWQtd2FybmluZy11cy1pbmZsYXRpb24taGlnaGx5LWVsZXZhdGVk0gFmaHR0cHM6Ly9jb2ludGVsZWdyYXBoLmNvbS9uZXdzL2JpdGNvaW4tY3JhY2tzLTI4ay1vbi1jcGktYW1pZC13YXJuaW5nLXVzLWluZmxhdGlvbi1oaWdobHktZWxldmF0ZWQvYW1w?oc=5</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:21:31 GMT</t>
+          <t>Wed, 10 May 2023 14:26:29 GMT</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Bitcoin News</t>
+          <t>Cointelegraph</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -676,7 +676,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -686,22 +686,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Recession alert: Why gold could outshine Bitcoin in a downturn - Finbold - Finance in Bold</t>
+          <t>Bitcoin busts through US$28,000 as U.S. inflation falls to 4.9% - Yahoo Finance</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiUmh0dHBzOi8vZmluYm9sZC5jb20vcmVjZXNzaW9uLWFsZXJ0LXdoeS1nb2xkLWNvdWxkLW91dHNoaW5lLWJpdGNvaW4taW4tYS1kb3dudHVybi_SAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiRWh0dHBzOi8vZmluYW5jZS55YWhvby5jb20vbmV3cy9iaXRjb2luLWJ1c3RzLXVzLTI4LTAwMC0xNDQyMzkwODEuaHRtbNIBTWh0dHBzOi8vZmluYW5jZS55YWhvby5jb20vYW1waHRtbC9uZXdzL2JpdGNvaW4tYnVzdHMtdXMtMjgtMDAwLTE0NDIzOTA4MS5odG1s?oc=5</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 12:36:31 GMT</t>
+          <t>Wed, 10 May 2023 14:42:39 GMT</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Finbold - Finance in Bold</t>
+          <t>Yahoo Finance</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -721,22 +721,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Understanding the Pros and Cons of Bitcoin Investment Pros and ... - The Crypto Basic</t>
+          <t>William Clemente III tips Bitcoin will hit six figures toward end of ... - Cointelegraph</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiXGh0dHBzOi8vdGhlY3J5cHRvYmFzaWMuY29tLzIwMjMvMDUvMDgvdW5kZXJzdGFuZGluZy10aGUtcHJvcy1hbmQtY29ucy1vZi1iaXRjb2luLWludmVzdG1lbnQv0gEA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMidWh0dHBzOi8vY29pbnRlbGVncmFwaC5jb20vbWFnYXppbmUvY3J5cHRvLWFuYWx5c3QtMjEtYW50aG9ueS1wb21wbGlhbm8td2lsbGlhbS1jbGVtZW50ZS1jcnlwdG8tdHdpdHRlci1oYWxsLW9mLWZsYW1lL9IBAA?oc=5</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:59:36 GMT</t>
+          <t>Wed, 10 May 2023 13:31:08 GMT</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>The Crypto Basic</t>
+          <t>Cointelegraph</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -756,22 +756,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Russia May Take Up 18% of Bitcoin Hashrate in Next Big Migration ... - Bitcoin News</t>
+          <t>Surging Bitcoin Lightning Network adds 2.5K nodes in one week ... - CryptoSlate</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMidmh0dHBzOi8vbmV3cy5iaXRjb2luLmNvbS9ydXNzaWEtbWF5LXRha2UtdXAtMTgtb2YtYml0Y29pbi1oYXNocmF0ZS1pbi1uZXh0LWJpZy1taWdyYXRpb24tb2YtY3J5cHRvLW1pbmVycy1leHBlcnRzLXNheS_SAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMic2h0dHBzOi8vY3J5cHRvc2xhdGUuY29tL2luc2lnaHRzL3N1cmdpbmctYml0Y29pbi1saWdodG5pbmctbmV0d29yay1hZGRzLTItNWstbm9kZXMtaW4tb25lLXdlZWstaGl0cy1hbGwtdGltZS1oaWdocy_SAQA?oc=5</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 04:59:36 GMT</t>
+          <t>Wed, 10 May 2023 12:36:23 GMT</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Bitcoin News</t>
+          <t>CryptoSlate</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -781,7 +781,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -791,22 +791,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Bitcoin Price Faces Another Rejection, Risk of Renewed Downtrend Increases - NewsBTC</t>
+          <t>The Bitcoin scam messages pumped out from dozens of hijacked celebrity Twitter accounts - Daily Mail</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiQWh0dHBzOi8vd3d3Lm5ld3NidGMuY29tL2FuYWx5c2lzL2J0Yy9iaXRjb2luLXByaWNlLXJlamVjdGlvbi0zMGsv0gFFaHR0cHM6Ly93d3cubmV3c2J0Yy5jb20vYW5hbHlzaXMvYnRjL2JpdGNvaW4tcHJpY2UtcmVqZWN0aW9uLTMway9hbXAv?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiggFodHRwczovL3d3dy5kYWlseW1haWwuY28udWsvbmV3cy9hcnRpY2xlLTEyMDY3Nzg3L1RoZS1CaXRjb2luLXNjYW0tbWVzc2FnZXMtcHVtcGVkLWRvemVucy1oaWphY2tlZC1jZWxlYnJpdHktVHdpdHRlci1hY2NvdW50cy5odG1s0gGGAWh0dHBzOi8vd3d3LmRhaWx5bWFpbC5jby51ay9uZXdzL2FydGljbGUtMTIwNjc3ODcvYW1wL1RoZS1CaXRjb2luLXNjYW0tbWVzc2FnZXMtcHVtcGVkLWRvemVucy1oaWphY2tlZC1jZWxlYnJpdHktVHdpdHRlci1hY2NvdW50cy5odG1s?oc=5</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 02:45:07 GMT</t>
+          <t>Wed, 10 May 2023 12:14:36 GMT</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>NewsBTC</t>
+          <t>Daily Mail</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -816,7 +816,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -826,22 +826,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Someone Sent $1.5 Million To A Notorious MEV Bot On Ethereum But Got Lucky - Bitcoinist</t>
+          <t>Bitcoin, Ethereum Technical Analysis: BTC Hovers Near Key Price Floor, Ahead of US Inflation Report – Market ... - Bitcoin News</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYWh0dHBzOi8vYml0Y29pbmlzdC5jb20vc29tZW9uZS1zZW50LTEtNS1taWxsaW9uLXRvLWEtbm90b3Jpb3VzLW1ldi1ib3Qtb24tZXRoZXJldW0tYnV0LWdvdC1sdWNreS_SAWVodHRwczovL2JpdGNvaW5pc3QuY29tL3NvbWVvbmUtc2VudC0xLTUtbWlsbGlvbi10by1hLW5vdG9yaW91cy1tZXYtYm90LW9uLWV0aGVyZXVtLWJ1dC1nb3QtbHVja3kvYW1wLw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiemh0dHBzOi8vbmV3cy5iaXRjb2luLmNvbS9iaXRjb2luLWV0aGVyZXVtLXRlY2huaWNhbC1hbmFseXNpcy1idGMtaG92ZXJzLW5lYXIta2V5LXByaWNlLWZsb29yLWFoZWFkLW9mLXVzLWluZmxhdGlvbi1yZXBvcnQv0gEA?oc=5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 02:46:07 GMT</t>
+          <t>Wed, 10 May 2023 12:52:20 GMT</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Bitcoinist</t>
+          <t>Bitcoin News</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -861,22 +861,22 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Reversibility On Ethereum: The Benefits And Pitfalls Of This On ... - Blockchain Magazine</t>
+          <t>CCData adds Ethereum to Staking Yield Index Family developed ... - FinanceFeeds</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiaWh0dHBzOi8vYmxvY2tjaGFpbm1hZ2F6aW5lLm5ldC9yZXZlcnNpYmlsaXR5LW9uLWV0aGVyZXVtLXRoZS1iZW5lZml0cy1hbmQtcGl0ZmFsbHMtb2YtdGhpcy1vbi1ibG9ja2NoYWluL9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiZ2h0dHBzOi8vZmluYW5jZWZlZWRzLmNvbS9jY2RhdGEtYWRkcy1ldGhlcmV1bS10by1zdGFraW5nLXlpZWxkLWluZGV4LWZhbWlseS1kZXZlbG9wZWQtd2l0aC1ibG9ja2RhZW1vbi_SAQA?oc=5</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 14:02:04 GMT</t>
+          <t>Wed, 10 May 2023 13:21:00 GMT</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Blockchain Magazine</t>
+          <t>FinanceFeeds</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -896,17 +896,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>What you need to know about Dencun – Ethereum’s next planned upgrade - CNBCTV18</t>
+          <t>Crypto Price Today: Bitcoin remains below 28k, Ethereum and other tokens mixed - CNBCTV18</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMid2h0dHBzOi8vd3d3LmNuYmN0djE4LmNvbS9jcnlwdG9jdXJyZW5jeS93aGF0LXlvdS1uZWVkLXRvLWtub3ctYWJvdXQtZGVuY3VuLS1ldGhlcmV1bXMtbmV4dC1wbGFubmVkLXVwZ3JhZGUtMTY1OTgyNzEuaHRt0gF7aHR0cHM6Ly93d3cuY25iY3R2MTguY29tL2NyeXB0b2N1cnJlbmN5L3doYXQteW91LW5lZWQtdG8ta25vdy1hYm91dC1kZW5jdW4tLWV0aGVyZXVtcy1uZXh0LXBsYW5uZWQtdXBncmFkZS0xNjU5ODI3MS5odG0vYW1w?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiiAFodHRwczovL3d3dy5jbmJjdHYxOC5jb20vcGhvdG9zL2NyeXB0b2N1cnJlbmN5L2NyeXB0by1wcmljZS10b2RheS0xMC1tYXktYml0Y29pbi1ldGhlcmV1bS1kb2dlY29pbi1zb2xhbmEtc2hpYmEtaW51LXBvbHlnb24tMTY2MTM1NzEuaHRt0gGMAWh0dHBzOi8vd3d3LmNuYmN0djE4LmNvbS9waG90b3MvY3J5cHRvY3VycmVuY3kvY3J5cHRvLXByaWNlLXRvZGF5LTEwLW1heS1iaXRjb2luLWV0aGVyZXVtLWRvZ2Vjb2luLXNvbGFuYS1zaGliYS1pbnUtcG9seWdvbi0xNjYxMzU3MS5odG0vYW1w?oc=5</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:06:47 GMT</t>
+          <t>Wed, 10 May 2023 03:37:27 GMT</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -931,22 +931,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Bitcoin (BTC) And Ethereum (ETH) Price Continues To Fluctuate As Sparklo Offers The Best Opportunity For Investors - Crypto Mode</t>
+          <t>Ethereum MEV-burn upgrade could reap big rewards for investors - FXStreet</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMihgFodHRwczovL2NyeXB0b21vZGUuY29tL2JpdGNvaW4tYnRjLWFuZC1ldGhlcmV1bS1ldGgtcHJpY2UtY29udGludWVzLXRvLWZsdWN0dWF0ZS1hcy1zcGFya2xvLW9mZmVycy10aGUtYmVzdC1vcHBvcnR1bml0eS1mb3ItaW52ZXN0b3JzL9IBigFodHRwczovL2NyeXB0b21vZGUuY29tL2JpdGNvaW4tYnRjLWFuZC1ldGhlcmV1bS1ldGgtcHJpY2UtY29udGludWVzLXRvLWZsdWN0dWF0ZS1hcy1zcGFya2xvLW9mZmVycy10aGUtYmVzdC1vcHBvcnR1bml0eS1mb3ItaW52ZXN0b3JzL2FtcC8?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiemh0dHBzOi8vd3d3LmZ4c3RyZWV0LmNvbS9jcnlwdG9jdXJyZW5jaWVzL25ld3MvZXRoZXJldW0tbWV2LWJ1cm4tdXBncmFkZS1jb3VsZC1yZWFwLWJpZy1yZXdhcmRzLWZvci1pbnZlc3RvcnMtMjAyMzA1MDkyMzU10gF-aHR0cHM6Ly93d3cuZnhzdHJlZXQuY29tL2FtcC9jcnlwdG9jdXJyZW5jaWVzL25ld3MvZXRoZXJldW0tbWV2LWJ1cm4tdXBncmFkZS1jb3VsZC1yZWFwLWJpZy1yZXdhcmRzLWZvci1pbnZlc3RvcnMtMjAyMzA1MDkyMzU1?oc=5</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 09:53:44 GMT</t>
+          <t>Tue, 09 May 2023 23:55:29 GMT</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Crypto Mode</t>
+          <t>FXStreet</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -966,22 +966,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3 low-risk high rewards tokens for 2023: Ethereum (ETH), Shiba Inu ... - Investing.com India</t>
+          <t>Ethereum Price Prediction as Meme Coin Mania Pushes Gas Fees ... - Cryptonews</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiemh0dHBzOi8vaW4uaW52ZXN0aW5nLmNvbS9uZXdzLzMtbG93cmlzay1oaWdoLXJld2FyZHMtdG9rZW5zLWZvci0yMDIzLWV0aGVyZXVtLWV0aC1zaGliYS1pbnUtc2hpYi1yZW5xLWZpbmFuY2UtcmVucS0zNjM0MDYy0gEA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMifGh0dHBzOi8vY3J5cHRvbmV3cy5jb20vbmV3cy9ldGhlcmV1bS1wcmljZS1wcmVkaWN0aW9uLWFzLW1lbWUtY29pbi1tYW5pYS1wdXNoZXMtZ2FzLWZlZXMtMTItbW9udGgtaGlnaC1ldGgtYWRvcHRpb24tcmlzZS5odG3SAQA?oc=5</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:48:08 GMT</t>
+          <t>Wed, 10 May 2023 15:55:00 GMT</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Investing.com India</t>
+          <t>Cryptonews</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1001,32 +1001,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cardano Price to hit $1 &amp; New Cryptocurrency AiDoge Hits $3,5 ... - Washington City Paper</t>
+          <t>Ethereum Price Prediction - Avorak AI forecasts bullish Altcoin summer - NewsBTC</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMicGh0dHBzOi8vd2FzaGluZ3RvbmNpdHlwYXBlci5jb20vYXJ0aWNsZS82MDM3MDIvY2FyZGFuby1wcmljZS10by1oaXQtMS1uZXctY3J5cHRvY3VycmVuY3ktYWlkb2dlLWhpdHMtMzUtbWlsbGlvbi_SAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMibGh0dHBzOi8vd3d3Lm5ld3NidGMuY29tL3ByZXNzLXJlbGVhc2VzL2V0aGVyZXVtLXByaWNlLXByZWRpY3Rpb24tYXZvcmFrLWFpLWZvcmVjYXN0cy1idWxsaXNoLWFsdGNvaW4tc3VtbWVyL9IBcGh0dHBzOi8vd3d3Lm5ld3NidGMuY29tL3ByZXNzLXJlbGVhc2VzL2V0aGVyZXVtLXByaWNlLXByZWRpY3Rpb24tYXZvcmFrLWFpLWZvcmVjYXN0cy1idWxsaXNoLWFsdGNvaW4tc3VtbWVyLz9hbXA?oc=5</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 11:55:18 GMT</t>
+          <t>Wed, 10 May 2023 16:00:02 GMT</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Washington City Paper</t>
+          <t>NewsBTC</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cardano</t>
+          <t>Ethereum</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1036,32 +1036,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Investors Are Bullish On Cardano, Baby Doge and Collateral Network - Crypto Mode</t>
+          <t>Crypto Market Analysis: Here’s What Next For Ethereum (ETH) &amp; Binance (BNB) Price - Coinpedia Fintech News</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiWWh0dHBzOi8vY3J5cHRvbW9kZS5jb20vaW52ZXN0b3JzLWFyZS1idWxsaXNoLW9uLWNhcmRhbm8tYmFieS1kb2dlLWFuZC1jb2xsYXRlcmFsLW5ldHdvcmsv0gFdaHR0cHM6Ly9jcnlwdG9tb2RlLmNvbS9pbnZlc3RvcnMtYXJlLWJ1bGxpc2gtb24tY2FyZGFuby1iYWJ5LWRvZ2UtYW5kLWNvbGxhdGVyYWwtbmV0d29yay9hbXAv?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiaGh0dHBzOi8vY29pbnBlZGlhLm9yZy9hbHRjb2luL2NyeXB0by1tYXJrZXQtYW5hbHlzaXMtaGVyZXMtd2hhdC1uZXh0LWZvci1ldGhlcmV1bS1ldGgtYmluYW5jZS1ibmItcHJpY2Uv0gFsaHR0cHM6Ly9jb2lucGVkaWEub3JnL2FsdGNvaW4vY3J5cHRvLW1hcmtldC1hbmFseXNpcy1oZXJlcy13aGF0LW5leHQtZm9yLWV0aGVyZXVtLWV0aC1iaW5hbmNlLWJuYi1wcmljZS9hbXAv?oc=5</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:34:12 GMT</t>
+          <t>Wed, 10 May 2023 16:48:30 GMT</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Crypto Mode</t>
+          <t>Coinpedia Fintech News</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Cardano</t>
+          <t>Ethereum</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1071,32 +1071,32 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Cardano (ADA) Hottest News: Layer 2 Hydra is Now Live ... - Blockzeit</t>
+          <t>Stablecoin Tether's reserves hit $81.8 billion in Q1 - reserves report - CNA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiigFodHRwczovL2Jsb2NremVpdC5jb20vY2FyZGFuby1hZGEtaG90dGVzdC1uZXdzLWxheWVyLTItaHlkcmEtaXMtbm93LWxpdmUtY29tcGV0aXRvci1oZWRnZXVwLWhkdXAtbGF1bmNoZXMtaWNvLWFuZC1yYWlzZXMtMS0xM20taW4tc3RhZ2UtMy_SAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib2h0dHBzOi8vd3d3LmNoYW5uZWxuZXdzYXNpYS5jb20vYnVzaW5lc3Mvc3RhYmxlY29pbi10ZXRoZXJzLXJlc2VydmVzLWhpdC04MTgtYmlsbGlvbi1xMS1yZXNlcnZlcy1yZXBvcnQtMzQ3OTUxMdIBAA?oc=5</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:24:10 GMT</t>
+          <t>Wed, 10 May 2023 15:43:25 GMT</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Blockzeit</t>
+          <t>CNA</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Cardano</t>
+          <t>Tether</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1106,27 +1106,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Best 4 Cryptos to Buy under $1. Shiba Inu (SHIB), Cardano (ADA ... - Analytics Insight</t>
+          <t>Tether attestation shows $1.5B worth of Bitcoin in reserves - CryptoSlate</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMidWh0dHBzOi8vd3d3LmFuYWx5dGljc2luc2lnaHQubmV0L2Jlc3QtNC1jcnlwdG9zLXRvLWJ1eS11bmRlci0xLXNoaWJhLWludS1zaGliLWNhcmRhbm8tYWRhLWhlZGdldXAtaGR1cC1hbmQtcGVwZS1wZXBlL9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiWmh0dHBzOi8vY3J5cHRvc2xhdGUuY29tL3RldGhlci1hdHRlc3RhdGlvbi1zaG93cy1pdC1oYXMtMS01Yi13b3J0aC1vZi1iaXRjb2luLWluLXJlc2VydmVzL9IBYGh0dHBzOi8vY3J5cHRvc2xhdGUuY29tL3RldGhlci1hdHRlc3RhdGlvbi1zaG93cy1pdC1oYXMtMS01Yi13b3J0aC1vZi1iaXRjb2luLWluLXJlc2VydmVzLz9hbXA9MQ?oc=5</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:35:16 GMT</t>
+          <t>Wed, 10 May 2023 16:18:23 GMT</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Analytics Insight</t>
+          <t>CryptoSlate</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Cardano</t>
+          <t>Tether</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1141,27 +1141,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Crypto Billionaire who Backed Cardano (ADA) and Dogecoin ... - Blockzeit</t>
+          <t>Former CFTC Chair Says Tether Is a Commodity as Stablecoin ... - Blockworks</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMikwFodHRwczovL2Jsb2NremVpdC5jb20vY3J5cHRvLWJpbGxpb25haXJlLXdoby1iYWNrZWQtY2FyZGFuby1hZGEtYW5kLWRvZ2Vjb2luLWRvZ2UtZ3JhYnMtYS1jaHVuay1vZi1oZWRnZXVwLWhkdXAtcHJlc2FsZS10b2tlbnMtd2hhdC1kb2VzLXRoaXMtbWVhbi_SAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiPWh0dHBzOi8vYmxvY2t3b3Jrcy5jby9uZXdzL2Zvcm1lci1jZnRjLWNoYWlyLXRldGhlci1jb21tb2RpdHnSAQA?oc=5</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:24:10 GMT</t>
+          <t>Wed, 10 May 2023 04:32:39 GMT</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Blockzeit</t>
+          <t>Blockworks</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cardano</t>
+          <t>Tether</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
@@ -1176,27 +1176,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Guardians 3’s Karen Gillan, Pom Klementieff on remaking their characters - Polygon</t>
+          <t>Former SEC official calls for US ban on Tether, calls it a ‘mammoth house of cards’ - CryptoSlate</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYWh0dHBzOi8vd3d3LnBvbHlnb24uY29tLzIzNzExNTY3L2d1YXJkaWFucy0zLW5lYnVsYS1tYW50aXMta2FyZW4tZ2lsbGFuLXBvbS1rbGVtZW50aWVmZi1pbnRlcnZpZXfSAW5odHRwczovL3d3dy5wb2x5Z29uLmNvbS9wbGF0Zm9ybS9hbXAvMjM3MTE1NjcvZ3VhcmRpYW5zLTMtbmVidWxhLW1hbnRpcy1rYXJlbi1naWxsYW4tcG9tLWtsZW1lbnRpZWZmLWludGVydmlldw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiaWh0dHBzOi8vY3J5cHRvc2xhdGUuY29tL2Zvcm1lci1zZWMtb2ZmaWNpYWwtY2FsbHMtZm9yLXVzLWJhbi1vbi10ZXRoZXItY2FsbHMtaXQtYS1tYW1tb3RoLWhvdXNlLW9mLWNhcmRzL9IBb2h0dHBzOi8vY3J5cHRvc2xhdGUuY29tL2Zvcm1lci1zZWMtb2ZmaWNpYWwtY2FsbHMtZm9yLXVzLWJhbi1vbi10ZXRoZXItY2FsbHMtaXQtYS1tYW1tb3RoLWhvdXNlLW9mLWNhcmRzLz9hbXA9MQ?oc=5</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:42:12 GMT</t>
+          <t>Wed, 10 May 2023 16:45:17 GMT</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Polygon</t>
+          <t>CryptoSlate</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Polygon</t>
+          <t>Tether</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
@@ -1211,32 +1211,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TMS Network (TMSN) Becomes Investors’ Favorite Amidst Polygon (MATIC) and Frax Share (FXS) Price Correction - Crypto Mode</t>
+          <t>Stablecoin Tether's reserves hit $81.8 billion in Q1 - reserves report - Yahoo Singapore News</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMifGh0dHBzOi8vY3J5cHRvbW9kZS5jb20vdG1zLW5ldHdvcmstdG1zbi1iZWNvbWVzLWludmVzdG9ycy1mYXZvcml0ZS1hbWlkc3QtcG9seWdvbi1tYXRpYy1hbmQtZnJheC1zaGFyZS1meHMtcHJpY2UtY29ycmVjdGlvbi_SAYABaHR0cHM6Ly9jcnlwdG9tb2RlLmNvbS90bXMtbmV0d29yay10bXNuLWJlY29tZXMtaW52ZXN0b3JzLWZhdm9yaXRlLWFtaWRzdC1wb2x5Z29uLW1hdGljLWFuZC1mcmF4LXNoYXJlLWZ4cy1wcmljZS1jb3JyZWN0aW9uL2FtcC8?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiS2h0dHBzOi8vc2cubmV3cy55YWhvby5jb20vc3RhYmxlY29pbi10ZXRoZXJzLXJlc2VydmVzLWhpdC04MS0xNTQzMjUwNzkuaHRtbNIBU2h0dHBzOi8vc2cubmV3cy55YWhvby5jb20vYW1waHRtbC9zdGFibGVjb2luLXRldGhlcnMtcmVzZXJ2ZXMtaGl0LTgxLTE1NDMyNTA3OS5odG1s?oc=5</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 09:49:15 GMT</t>
+          <t>Wed, 10 May 2023 15:43:25 GMT</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Crypto Mode</t>
+          <t>Yahoo Singapore News</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Polygon</t>
+          <t>Tether</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1246,32 +1246,32 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Solana Labs CEO: Wasn't Sure the Ecosystem Would Survive After FTX - CoinDesk</t>
+          <t>BitMEX Introduces Floki Inu Perpetual Listings With Up To 50x Leverage - TronWeekly</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYGh0dHBzOi8vd3d3LmNvaW5kZXNrLmNvbS92aWRlby9zb2xhbmEtbGFicy1jZW8td2FzbnQtc3VyZS10aGUtZWNvc3lzdGVtLXdvdWxkLXN1cnZpdmUtYWZ0ZXItZnR4L9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiQGh0dHBzOi8vd3d3LnRyb253ZWVrbHkuY29tL2JpdG1leC1pZmxva2ktaW51LXBlcnBldHVhbC1saXN0aW5ncy_SAURodHRwczovL3d3dy50cm9ud2Vla2x5LmNvbS9iaXRtZXgtaWZsb2tpLWludS1wZXJwZXR1YWwtbGlzdGluZ3MvYW1wLw?oc=5</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:40:19 GMT</t>
+          <t>Wed, 10 May 2023 14:30:00 GMT</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CoinDesk</t>
+          <t>TronWeekly</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>Tether</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1281,32 +1281,32 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Large cryptocurrencies drop on Solana, Ripple decreases - MarketWatch</t>
+          <t>Different Types of Cryptocurrency Explained - CoinCodex</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMicmh0dHBzOi8vd3d3Lm1hcmtldHdhdGNoLmNvbS9kYXRhLW5ld3MvbGFyZ2UtY3J5cHRvY3VycmVuY2llcy1kcm9wLW9uLXNvbGFuYS1yaXBwbGUtZGVjcmVhc2VzLTJmODcyMWYwLTg0MDZiMTg2OTQ2ONIBdmh0dHBzOi8vd3d3Lm1hcmtldHdhdGNoLmNvbS9hbXAvZGF0YS1uZXdzL2xhcmdlLWNyeXB0b2N1cnJlbmNpZXMtZHJvcC1vbi1zb2xhbmEtcmlwcGxlLWRlY3JlYXNlcy0yZjg3MjFmMC04NDA2YjE4Njk0Njg?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiPGh0dHBzOi8vY29pbmNvZGV4LmNvbS9hcnRpY2xlLzI2ODY1L3R5cGVzLW9mLWNyeXB0b2N1cnJlbmN5L9IBAA?oc=5</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 14:00:00 GMT</t>
+          <t>Wed, 10 May 2023 15:11:15 GMT</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MarketWatch</t>
+          <t>CoinCodex</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>Tether</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1316,32 +1316,32 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Ethereum Staking Withdrawals Equal Deposits: Should ETH Holders ... - Analytics Insight</t>
+          <t>Price analysis 5/10: BTC, ETH, BNB, XRP, ADA, DOGE, MATIC, SOL, DOT, LTC - Cointelegraph</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMijAFodHRwczovL3d3dy5hbmFseXRpY3NpbnNpZ2h0Lm5ldC9ldGhlcmV1bS1zdGFraW5nLXdpdGhkcmF3YWxzLWVxdWFsLWRlcG9zaXRzLXNob3VsZC1ldGgtaG9sZGVycy1iZS13b3JyaWVkLWFzLXNvbGFuYS1zaWdudXB0b2tlbi1jb20tZW1lcmdlL9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiXWh0dHBzOi8vY29pbnRlbGVncmFwaC5jb20vbmV3cy9wcmljZS1hbmFseXNpcy01LTEwLWJ0Yy1ldGgtYm5iLXhycC1hZGEtZG9nZS1tYXRpYy1zb2wtZG90LWx0Y9IBYWh0dHBzOi8vY29pbnRlbGVncmFwaC5jb20vbmV3cy9wcmljZS1hbmFseXNpcy01LTEwLWJ0Yy1ldGgtYm5iLXhycC1hZGEtZG9nZS1tYXRpYy1zb2wtZG90LWx0Yy9hbXA?oc=5</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 10:00:20 GMT</t>
+          <t>Wed, 10 May 2023 14:49:53 GMT</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Analytics Insight</t>
+          <t>Cointelegraph</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1351,32 +1351,32 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>First Republic Bank Needs a Bailout, How Will This Impact Baby Doge Coin, Solana and Collateral Network? - Coinspeaker</t>
+          <t>BNB NFT marketplace Tabi raises $10M in angel funding - Cointelegraph</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiaWh0dHBzOi8vd3d3LmNvaW5zcGVha2VyLmNvbS9maXJzdC1yZXB1YmxpYy1iYW5rLW5lZWRzLWJhaWxvdXQtaW1wYWN0LWJhYnktZG9nZS1zb2xhbmEtY29sbGF0ZXJhbC1uZXR3b3JrL9IBbWh0dHBzOi8vd3d3LmNvaW5zcGVha2VyLmNvbS9maXJzdC1yZXB1YmxpYy1iYW5rLW5lZWRzLWJhaWxvdXQtaW1wYWN0LWJhYnktZG9nZS1zb2xhbmEtY29sbGF0ZXJhbC1uZXR3b3JrL2FtcC8?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiU2h0dHBzOi8vY29pbnRlbGVncmFwaC5jb20vbmV3cy9ibmItbmZ0LW1hcmtldHBsYWNlLXRhYmktcmFpc2VzLTEwbS1pbi1hbmdlbC1mdW5kaW5n0gFXaHR0cHM6Ly9jb2ludGVsZWdyYXBoLmNvbS9uZXdzL2JuYi1uZnQtbWFya2V0cGxhY2UtdGFiaS1yYWlzZXMtMTBtLWluLWFuZ2VsLWZ1bmRpbmcvYW1w?oc=5</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 12:51:00 GMT</t>
+          <t>Wed, 10 May 2023 15:00:00 GMT</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Coinspeaker</t>
+          <t>Cointelegraph</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Polkadot Scores Massive Industry Leader to Join Billion-Dollar ... - Crypto News Flash</t>
+          <t>BNB (BNB) and XRP (XRP) Whales are Looking at Sparklo (SPRK ... - NewsBTC</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMijwFodHRwczovL3d3dy5jcnlwdG8tbmV3cy1mbGFzaC5jb20vcG9sa2Fkb3Qtc2NvcmVzLW1hc3NpdmUtaW5kdXN0cnktbGVhZGVyLXRvLWpvaW4tYmlsbGlvbi1kb2xsYXItZWNvc3lzdGVtLWFzLWRldmVsb3BtZW50LWlzLXJhbXBpbmctdXAtcmVwb3J0L9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMifmh0dHBzOi8vd3d3Lm5ld3NidGMuY29tL3ByZXNzLXJlbGVhc2VzL2JuYi1ibmItYW5kLXhycC14cnAtd2hhbGVzLWFyZS1sb29raW5nLWF0LXNwYXJrbG8tc3Byay1hcy10aGUtbmV4dC1oaWdoLWdyb3d0aC1hbHRjb2luL9IBggFodHRwczovL3d3dy5uZXdzYnRjLmNvbS9wcmVzcy1yZWxlYXNlcy9ibmItYm5iLWFuZC14cnAteHJwLXdoYWxlcy1hcmUtbG9va2luZy1hdC1zcGFya2xvLXNwcmstYXMtdGhlLW5leHQtaGlnaC1ncm93dGgtYWx0Y29pbi8_YW1w?oc=5</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:31:29 GMT</t>
+          <t>Wed, 10 May 2023 16:21:46 GMT</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Crypto News Flash</t>
+          <t>NewsBTC</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>BNB</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1421,27 +1421,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Deloitte Leverages Blockchain To Revolutionize Digital Credentialing - UseTheBitcoin</t>
+          <t>Cardano Launches New Era Enabling Users to Bank with cBTC - Crypto News Flash</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiX2h0dHBzOi8vdXNldGhlYml0Y29pbi5jb20vZGVsb2l0dGUtbGV2ZXJhZ2VzLWJsb2NrY2hhaW4tdG8tcmV2b2x1dGlvbml6ZS1kaWdpdGFsLWNyZWRlbnRpYWxpbmcv0gEA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMitQFodHRwczovL3d3dy5jcnlwdG8tbmV3cy1mbGFzaC5jb20vY2FyZGFuby1sYXVuY2hlcy1uZXctZXJhLWVuYWJsaW5nLXVzZXJzLXRvLWJhbmstY29uZHVjdC1ldmVyeWRheS10cmFuc2FjdGlvbnMtdGFrZS1vdXQtbG9hbnMtYW5kLXRyYWRlLW9uLWRleGVzLXdpdGgtYml0Y29pbi1vbi10aGUtYWRhLWJsb2NrY2hhaW4v0gEA?oc=5</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 14:00:00 GMT</t>
+          <t>Wed, 10 May 2023 16:32:08 GMT</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>UseTheBitcoin</t>
+          <t>Crypto News Flash</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>Cardano</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1456,32 +1456,32 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Apple Stock: Upside Is Limited From Here (NASDAQ:AAPL) - Seeking Alpha</t>
+          <t>Zelda: Tears of the Kingdom ad targets depressed working dads - Polygon</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiR2h0dHBzOi8vc2Vla2luZ2FscGhhLmNvbS9hcnRpY2xlLzQ2MDA5MDQtYXBwbGUtdXBzaWRlLWxpbWl0ZWQtZnJvbS1oZXJl0gEA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMicWh0dHBzOi8vd3d3LnBvbHlnb24uY29tL2xlZ2VuZC16ZWxkYS10ZWFycy1raW5nZG9tLzIzNzE4MzYyL3plbGRhLXRlYXJzLW9mLXRoZS1raW5nZG9tLXRvdGstc2FkLWJ1cy1tYW4tYWQtYm90dy0y0gF-aHR0cHM6Ly93d3cucG9seWdvbi5jb20vcGxhdGZvcm0vYW1wL2xlZ2VuZC16ZWxkYS10ZWFycy1raW5nZG9tLzIzNzE4MzYyL3plbGRhLXRlYXJzLW9mLXRoZS1raW5nZG9tLXRvdGstc2FkLWJ1cy1tYW4tYWQtYm90dy0y?oc=5</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 12:37:00 GMT</t>
+          <t>Wed, 10 May 2023 16:20:36 GMT</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Seeking Alpha</t>
+          <t>Polygon</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Polygon</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -1491,32 +1491,32 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Good Question: When will Apple Cinemas open in Pittsford? - News10NBC</t>
+          <t>PlayStation Plus Extra and Premium games for May 2023 announced - Polygon</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiU2h0dHBzOi8vd3d3LndoZWMuY29tL2xvY2FsL2dvb2QtcXVlc3Rpb24td2hlbi13aWxsLWFwcGxlLWNpbmVtYXMtb3Blbi1pbi1waXR0c2ZvcmQv0gEA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiXGh0dHBzOi8vd3d3LnBvbHlnb24uY29tLzIzNzE4NDU4L3BsYXlzdGF0aW9uLXBzLXBsdXMtZXh0cmEtZ2FtZXMtbWF5LTIwMjMtcHJlbWl1bS1jb2xsZWN0aW9u0gFpaHR0cHM6Ly93d3cucG9seWdvbi5jb20vcGxhdGZvcm0vYW1wLzIzNzE4NDU4L3BsYXlzdGF0aW9uLXBzLXBsdXMtZXh0cmEtZ2FtZXMtbWF5LTIwMjMtcHJlbWl1bS1jb2xsZWN0aW9u?oc=5</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 11:20:39 GMT</t>
+          <t>Wed, 10 May 2023 16:36:59 GMT</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>News10NBC</t>
+          <t>Polygon</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Polygon</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1526,32 +1526,32 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>There hasn't been much drama in Apple's earnings for two decades — and that's good - AppleInsider</t>
+          <t>Zelda: Tears of the Kingdom costs $20 after trade-in at GameStop - Polygon</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMie2h0dHBzOi8vYXBwbGVpbnNpZGVyLmNvbS9hcnRpY2xlcy8yMy8wNS8wOC90aGVyZS1oYXNudC1iZWVuLW11Y2gtZHJhbWEtaW4tYXBwbGVzLWVhcm5pbmdzLWZvci10d28tZGVjYWRlcy0tLS1hbmQtdGhhdHMtZ29vZNIBgAFodHRwczovL2FwcGxlaW5zaWRlci5jb20vYXJ0aWNsZXMvMjMvMDUvMDgvdGhlcmUtaGFzbnQtYmVlbi1tdWNoLWRyYW1hLWluLWFwcGxlcy1lYXJuaW5ncy1mb3ItdHdvLWRlY2FkZXMtLS0tYW5kLXRoYXRzLWdvb2QvYW1wLw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiZWh0dHBzOi8vd3d3LnBvbHlnb24uY29tL2RlYWxzLzIzNzE4Mjc3L2xlZ2VuZC1vZi16ZWxkYS10ZWFycy1raW5nZG9tLWdhbWVzdG9wLXRyYWRlLWluLXByZS1vcmRlci1kZWFs0gFyaHR0cHM6Ly93d3cucG9seWdvbi5jb20vcGxhdGZvcm0vYW1wL2RlYWxzLzIzNzE4Mjc3L2xlZ2VuZC1vZi16ZWxkYS10ZWFycy1raW5nZG9tLWdhbWVzdG9wLXRyYWRlLWluLXByZS1vcmRlci1kZWFs?oc=5</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:12:35 GMT</t>
+          <t>Wed, 10 May 2023 15:54:23 GMT</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>AppleInsider</t>
+          <t>Polygon</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Polygon</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -1561,32 +1561,32 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Is Apple Stock a Buy Right Now? - The Motley Fool</t>
+          <t>While SOL and MATIC Struggle, COLT Is Set to Bring Huge Gains - Analytics Insight</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiSWh0dHBzOi8vd3d3LmZvb2wuY29tL2ludmVzdGluZy8yMDIzLzA1LzA4L2lzLWFwcGxlLXN0b2NrLWEtYnV5LXJpZ2h0LW5vdy_SAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiXmh0dHBzOi8vd3d3LmFuYWx5dGljc2luc2lnaHQubmV0L3doaWxlLXNvbC1hbmQtbWF0aWMtc3RydWdnbGUtY29sdC1pcy1zZXQtdG8tYnJpbmctaHVnZS1nYWlucy_SAQA?oc=5</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:46:30 GMT</t>
+          <t>Wed, 10 May 2023 16:11:48 GMT</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>The Motley Fool</t>
+          <t>Analytics Insight</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1596,27 +1596,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Deals: 2023 MacBook Pro from $1,749, Apple HomePod 2 now $279, 45mm Apple Watch Series 8 $359 - AppleInsider</t>
+          <t>Solana (SOL) turns green after the Saga was unlocked for the ... - InvestorsObserver</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMigQFodHRwczovL2FwcGxlaW5zaWRlci5jb20vYXJ0aWNsZXMvMjMvMDUvMDgvZGVhbHMtMjAyMy1tYWNib29rLXByby1mcm9tLTE3NDktYXBwbGUtaG9tZXBvZC0yLW5vdy0yNzktNDVtbS1hcHBsZS13YXRjaC1zZXJpZXMtOC0zNTnSAYYBaHR0cHM6Ly9hcHBsZWluc2lkZXIuY29tL2FydGljbGVzLzIzLzA1LzA4L2RlYWxzLTIwMjMtbWFjYm9vay1wcm8tZnJvbS0xNzQ5LWFwcGxlLWhvbWVwb2QtMi1ub3ctMjc5LTQ1bW0tYXBwbGUtd2F0Y2gtc2VyaWVzLTgtMzU5L2FtcC8?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiP2h0dHBzOi8vd3d3LmludmVzdG9yc29ic2VydmVyLmNvbS9uZXdzL3FtLW5ld3MvNjUyODg0ODAwODg5OTc4MdIBAA?oc=5</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:24:39 GMT</t>
+          <t>Wed, 10 May 2023 16:20:30 GMT</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>AppleInsider</t>
+          <t>InvestorsObserver</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Solana</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1631,32 +1631,32 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>The Apple Music desktop app remains rubbish: Here are three ways ... - iMore</t>
+          <t>SORA Community Launches SORA Card - Digital Journal</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMie2h0dHBzOi8vd3d3Lmltb3JlLmNvbS9tdXNpYy1tb3ZpZXMtdHYvYXBwbGUtbXVzaWMvdGhlLWFwcGxlLW11c2ljLWRlc2t0b3AtYXBwLXJlbWFpbnMtcnViYmlzaC1oZXJlLWFyZS10aHJlZS13YXlzLXRvLWZpeC1pdNIBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW2h0dHBzOi8vd3d3LmRpZ2l0YWxqb3VybmFsLmNvbS9wci9uZXdzL3Byb2RpZ3ktcHJlc3Mtd2lyZS9zb3JhLWNvbW11bml0eS1sYXVuY2hlcy1zb3JhLWNhcmTSAQA?oc=5</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:30:00 GMT</t>
+          <t>Wed, 10 May 2023 16:19:22 GMT</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>iMore</t>
+          <t>Digital Journal</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Polkadot</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1666,22 +1666,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>New Apple TV Plus show Silo is giving Ted Lasso a run for his money - iMore</t>
+          <t>Apple AirPods price tracker: When to buy - CBS News</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMicmh0dHBzOi8vd3d3Lmltb3JlLmNvbS9tdXNpYy1tb3ZpZXMtdHYvYXBwbGUtdHYvbmV3LWFwcGxlLXR2LXBsdXMtc2hvdy1zaWxvLWlzLWdpdmluZy10ZWQtbGFzc28tYS1ydW4tZm9yLWhpcy1tb25ledIBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiRWh0dHBzOi8vd3d3LmNic25ld3MuY29tL25ld3MvYXBwbGUtYWlycG9kcy1wcmljZS10cmFja2VyLXdoZW4tdG8tYnV5L9IBT2h0dHBzOi8vd3d3LmNic25ld3MuY29tL2FtcC9lc3NlbnRpYWxzL2FwcGxlLWFpcnBvZHMtcHJpY2UtdHJhY2tlci13aGVuLXRvLWJ1eS8?oc=5</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 12:37:34 GMT</t>
+          <t>Wed, 10 May 2023 16:32:41 GMT</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>iMore</t>
+          <t>CBS News</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1701,22 +1701,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>6 big dividends: Apple hikes by a penny; Enviva eliminates its ... - Investing.com</t>
+          <t>Leaker claims Apple used 'multi-step sting' operation to identify and fire their source ahead of WWDC - 9to5Mac</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMifGh0dHBzOi8vd3d3LmludmVzdGluZy5jb20vbmV3cy9zdG9jay1tYXJrZXQtbmV3cy82LWJpZy1kaXZpZGVuZHMtYXBwbGUtaGlrZXMtYnktYS1wZW5ueS1lbnZpdmEtZWxpbWluYXRlcy1pdHMtcGF5b3V0LTMwNzU1MDPSAYQBaHR0cHM6Ly9tLmludmVzdGluZy5jb20vbmV3cy9zdG9jay1tYXJrZXQtbmV3cy82LWJpZy1kaXZpZGVuZHMtYXBwbGUtaGlrZXMtYnktYS1wZW5ueS1lbnZpdmEtZWxpbWluYXRlcy1pdHMtcGF5b3V0LTMwNzU1MDM_YW1wTW9kZT0x?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiSWh0dHBzOi8vOXRvNW1hYy5jb20vMjAyMy8wNS8xMC9hcHBsZS1sZWFrZXItc3Rpbmctb3BlcmF0aW9uLXNvdXJjZS1maXJlZC_SAQA?oc=5</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 08:49:00 GMT</t>
+          <t>Wed, 10 May 2023 16:24:00 GMT</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Investing.com</t>
+          <t>9to5Mac</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1736,22 +1736,22 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>You won't believe which app just got Apple CarPlay support - iMore</t>
+          <t>Apple's first app subscription is here and now we'll be paying for our ... - Macworld</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYWh0dHBzOi8vd3d3Lmltb3JlLmNvbS9hcHBzL3JlYWRpbmctYXBwcy95b3Utd29udC1iZWxpZXZlLXdoaWNoLWFwcC1qdXN0LWdvdC1hcHBsZS1jYXJwbGF5LXN1cHBvcnTSAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiWWh0dHBzOi8vd3d3Lm1hY3dvcmxkLmNvbS9hcnRpY2xlLzE4MTUwOTcvZmluYWwtY3V0LWxvZ2ljLXByby1zdWJzY3JpcHRpb24tbWFjLWlwaG9uZS5odG1s0gEA?oc=5</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:11:33 GMT</t>
+          <t>Wed, 10 May 2023 16:15:00 GMT</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>iMore</t>
+          <t>Macworld</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1771,22 +1771,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Will Apple announce new hardware at WWDC 2023? Here's what ... - BGR</t>
+          <t>Shazam Now Supports Apple Music Classical - MacRumors</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiY2h0dHBzOi8vYmdyLmNvbS90ZWNoL3dpbGwtYXBwbGUtYW5ub3VuY2UtbmV3LWhhcmR3YXJlLWF0LXd3ZGMtMjAyMy1oZXJlcy13aGF0LWxhdW5jaGVkLWluLXRoZS1wYXN0L9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiQmh0dHBzOi8vd3d3Lm1hY3J1bW9ycy5jb20vMjAyMy8wNS8xMC9zaGF6YW0tYXBwbGUtbXVzaWMtY2xhc3NpY2FsL9IBAA?oc=5</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 14:12:00 GMT</t>
+          <t>Wed, 10 May 2023 14:09:09 GMT</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>MacRumors</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -1806,22 +1806,22 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Apple now forms nearly half of Berkshire Hathaway's portfolio, Warren Buffett trims stake in Chevron - CNBCTV18</t>
+          <t>Apple Tap-to-Pay Tech Gets Extra Round of EU Antitrust Scrutiny - Bloomberg</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiiQFodHRwczovL3d3dy5jbmJjdHYxOC5jb20vYnVzaW5lc3MvY29tcGFuaWVzL3dhcnJlbi1idWZmZXR0LWJlcmtzaGlyZS1oYXRoYXdheS1hcHBsZS1jaGV2cm9uLWNvY2EtY29sYS10b3AtaG9sZGluZ3MtcG9ydGZvbGlvLTE2NTkyMjMxLmh0bdIBjQFodHRwczovL3d3dy5jbmJjdHYxOC5jb20vYnVzaW5lc3MvY29tcGFuaWVzL3dhcnJlbi1idWZmZXR0LWJlcmtzaGlyZS1oYXRoYXdheS1hcHBsZS1jaGV2cm9uLWNvY2EtY29sYS10b3AtaG9sZGluZ3MtcG9ydGZvbGlvLTE2NTkyMjMxLmh0bS9hbXA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMicmh0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDIzLTA1LTEwL2FwcGxlLXRhcC10by1wYXktdGVjaC1nZXRzLWV4dHJhLXJvdW5kLW9mLWV1LWFudGl0cnVzdC1zY3J1dGluedIBAA?oc=5</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 08:42:33 GMT</t>
+          <t>Wed, 10 May 2023 15:39:08 GMT</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>CNBCTV18</t>
+          <t>Bloomberg</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1841,22 +1841,22 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Buffett: Apple outshines Berkshire's top holdings - Ghacks</t>
+          <t>Apple to Continue Making its Phones Bigger With the iPhone 16 Pro ... - ExtremeTech</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiSGh0dHBzOi8vd3d3LmdoYWNrcy5uZXQvMjAyMy8wNS8wOC9idWZmZXR0LWFwcGxlLWJlc3QtYmVya3NoaXJlLWhvbGRpbmdzL9IBTGh0dHBzOi8vd3d3LmdoYWNrcy5uZXQvMjAyMy8wNS8wOC9idWZmZXR0LWFwcGxlLWJlc3QtYmVya3NoaXJlLWhvbGRpbmdzLz9hbXA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMibGh0dHBzOi8vd3d3LmV4dHJlbWV0ZWNoLmNvbS9tb2JpbGUvYXBwbGUtdG8tY29udGludWUtbWFraW5nLWl0cy1waG9uZXMtYmlnZ2VyLXdpdGgtdGhlLWlwaG9uZS0xNi1wcm8tYW5kLXByb9IBAA?oc=5</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:47:19 GMT</t>
+          <t>Wed, 10 May 2023 12:00:00 GMT</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Ghacks</t>
+          <t>ExtremeTech</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1866,7 +1866,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1876,32 +1876,32 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Musk Says Tesla FSD 11.4 Beta Shipping For Staff Today And Wider As 'Confidence Grows' - Tesla (NASDAQ:TSLA) - Benzinga</t>
+          <t>Apple Co-Founder Steve Wozniak Issues Stark AI Warning - Forbes</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMigQFodHRwczovL3d3dy5iZW56aW5nYS5jb20vbmV3cy8yMy8wNS8zMjI1ODA0NC9tdXNrLXNheXMtdGVzbGEtZnNkLTExLTQtYmV0YS1zaGlwcGluZy1mb3Itc3RhZmYtdG9kYXktYW5kLXdpZGVyLWFzLWNvbmZpZGVuY2UtZ3Jvd3PSAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib2h0dHBzOi8vd3d3LmZvcmJlcy5jb20vc2l0ZXMva2F0ZW9mbGFoZXJ0eXVrLzIwMjMvMDUvMTAvYXBwbGUtY28tZm91bmRlci1zdGV2ZS13b3puaWFrLWlzc3Vlcy1zdGFyay1haS13YXJuaW5nL9IBc2h0dHBzOi8vd3d3LmZvcmJlcy5jb20vc2l0ZXMva2F0ZW9mbGFoZXJ0eXVrLzIwMjMvMDUvMTAvYXBwbGUtY28tZm91bmRlci1zdGV2ZS13b3puaWFrLWlzc3Vlcy1zdGFyay1haS13YXJuaW5nL2FtcC8?oc=5</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 05:43:15 GMT</t>
+          <t>Wed, 10 May 2023 16:05:51 GMT</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Benzinga</t>
+          <t>Forbes</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -1911,27 +1911,27 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>He Died Helping Build Tesla's Gigafactory. Tesla Didn't Tell Local Officials. - The Texas Observer</t>
+          <t>Appeals Court Sides With Corellium in Apple Copyright Case - SecurityWeek</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiPGh0dHBzOi8vd3d3LnRleGFzb2JzZXJ2ZXIub3JnL3Rlc2xhLXRleGFzLXdvcmtlci1kZWF0aC1oZWF0L9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiWGh0dHBzOi8vd3d3LnNlY3VyaXR5d2Vlay5jb20vYXBwZWFscy1jb3VydC1zaWRlcy13aXRoLWNvcmVsbGl1bS1pbi1hcHBsZS1jb3B5cmlnaHQtY2FzZS_SAVxodHRwczovL3d3dy5zZWN1cml0eXdlZWsuY29tL2FwcGVhbHMtY291cnQtc2lkZXMtd2l0aC1jb3JlbGxpdW0taW4tYXBwbGUtY29weXJpZ2h0LWNhc2UvYW1wLw?oc=5</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:00:00 GMT</t>
+          <t>Wed, 10 May 2023 15:52:37 GMT</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>The Texas Observer</t>
+          <t>SecurityWeek</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1946,27 +1946,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tesla: Elevated Re-Rating Risk (Rating Upgrade) (NASDAQ:TSLA) - Seeking Alpha</t>
+          <t>Tim Cook Sends Wishes To Hit-And-Run Survivor Who Credits Apple Watch For Saving His Life - Apple (NASDAQ - Benzinga</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiVWh0dHBzOi8vc2Vla2luZ2FscGhhLmNvbS9hcnRpY2xlLzQ2MDE0OTktdGVzbGEtZWxldmF0ZWQtcmUtcmF0aW5nLXJpc2stcmF0aW5nLXVwZ3JhZGXSAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMihgFodHRwczovL3d3dy5iZW56aW5nYS5jb20vbmV3cy8yMy8wNS8zMjMxNDY4NS90aW0tY29vay1zZW5kcy13aXNoZXMtdG8taGl0LWFuZC1ydW4tc3Vydml2b3Itd2hvLWNyZWRpdHMtYXBwbGUtd2F0Y2gtZm9yLXNhdmluZy1oaXMtbGlmZdIBLWh0dHBzOi8vd3d3LmJlbnppbmdhLmNvbS9hbXAvY29udGVudC8zMjMxNDY4NQ?oc=5</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:53:02 GMT</t>
+          <t>Wed, 10 May 2023 12:40:46 GMT</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Seeking Alpha</t>
+          <t>Benzinga</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1981,32 +1981,32 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Tesla Vs. BYD 2023: EV Rivals Are Frenemies Now; TSLA Stock Halts Slide As BYD Nears Buy Point | Investor's ... - Investor's Business Daily</t>
+          <t>Dell's 32-inch 6K Monitor Now Available, Undercuts Apple Pro ... - Tom's Hardware</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiUGh0dHBzOi8vd3d3LmludmVzdG9ycy5jb20vbmV3cy90ZXNsYS12cy1ieWQtMjAyMy1jb21wYXJpbmctZXYtcml2YWxzLXRzbGEtc3RvY2sv0gEA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiTGh0dHBzOi8vd3d3LnRvbXNoYXJkd2FyZS5jb20vbmV3cy9kZWxsLVVsdHJhU2hhcnAtMzItNmstVTMyMjRLQi1ub3ctc2hpcHBpbmfSAQA?oc=5</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 10:12:00 GMT</t>
+          <t>Wed, 10 May 2023 15:10:48 GMT</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Investor's Business Daily</t>
+          <t>Tom's Hardware</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -2016,27 +2016,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Tesla Semi Will Finally Get Independently Tested to Confirm Real Performance - The Drive</t>
+          <t>This new super-sharp OLED screen could solve my biggest Apple ... - TechRadar</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiamh0dHBzOi8vd3d3LnRoZWRyaXZlLmNvbS9uZXdzL3Rlc2xhLXNlbWktd2lsbC1maW5hbGx5LWdldC1pbmRlcGVuZGVudGx5LXRlc3RlZC10by1jb25maXJtLXJlYWwtcGVyZm9ybWFuY2XSAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiamh0dHBzOi8vd3d3LnRlY2hyYWRhci5jb20vbmV3cy90aGlzLW5ldy1zdXBlci1zaGFycC1vbGVkLXNjcmVlbi1jb3VsZC1zb2x2ZS1teS1iaWdnZXN0LWFwcGxlLXdhdGNoLXByb2JsZW3SAQA?oc=5</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 00:00:00 GMT</t>
+          <t>Wed, 10 May 2023 15:58:41 GMT</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>The Drive</t>
+          <t>TechRadar</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -2051,32 +2051,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tesla Model Y: China’s electric SUV market is getting more competitive, both locally and in exports - TESLARATI</t>
+          <t>Nikon Z8 Hands-On: This Apple Didn't Fall Far From the Z9 Tree - PetaPixel</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiV2h0dHBzOi8vd3d3LnRlc2xhcmF0aS5jb20vdGVzbGEtY2hpbmEtbW9kZWwteS10aHJpdmluZy1pbmNyZWFzaW5nbHktY29tcGV0aXRpdmUtbWFya2V0L9IBW2h0dHBzOi8vd3d3LnRlc2xhcmF0aS5jb20vdGVzbGEtY2hpbmEtbW9kZWwteS10aHJpdmluZy1pbmNyZWFzaW5nbHktY29tcGV0aXRpdmUtbWFya2V0L2FtcC8?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiXmh0dHBzOi8vcGV0YXBpeGVsLmNvbS8yMDIzLzA1LzEwL25pa29uLXo4LWhhbmRzLW9uLXRoaXMtYXBwbGUtZGlkbnQtZmFsbC1mYXItZnJvbS10aGUtejktdHJlZS_SAQA?oc=5</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 11:59:21 GMT</t>
+          <t>Wed, 10 May 2023 12:00:28 GMT</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>TESLARATI</t>
+          <t>PetaPixel</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Tesla</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2086,22 +2086,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Tesla Rethinks the Assembly Line - Assembly Magazine</t>
+          <t>Tesla slashes Supercharger prices across Europe - Electrek</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiS2h0dHBzOi8vd3d3LmFzc2VtYmx5bWFnLmNvbS9hcnRpY2xlcy85Nzc4OC10ZXNsYS1yZXRoaW5rcy10aGUtYXNzZW1ibHktbGluZdIBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiSGh0dHBzOi8vZWxlY3RyZWsuY28vMjAyMy8wNS8xMC90ZXNsYS1zbGFzaGVzLXN1cGVyY2hhcmdlci1wcmljZXMtZXVyb3BlL9IBAA?oc=5</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:41:12 GMT</t>
+          <t>Wed, 10 May 2023 16:27:00 GMT</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Assembly Magazine</t>
+          <t>Electrek</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2121,22 +2121,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Tesla Model Y Range With BYD Battery Is Revealed and Has a Nice Range Surprise - Torque News</t>
+          <t>Tesla Bears May Have to Let the Bulls Take the Wheel Soon - RealMoney</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiZWh0dHBzOi8vd3d3LnRvcnF1ZW5ld3MuY29tL3ZpZGVvL3Rlc2xhLW1vZGVsLXktcmFuZ2UtYnlkLWJhdHRlcnktcmV2ZWFsZWQtYW5kLWhhcy1uaWNlLXJhbmdlLXN1cnByaXNl0gFpaHR0cHM6Ly93d3cudG9ycXVlbmV3cy5jb20vdmlkZW8vdGVzbGEtbW9kZWwteS1yYW5nZS1ieWQtYmF0dGVyeS1yZXZlYWxlZC1hbmQtaGFzLW5pY2UtcmFuZ2Utc3VycHJpc2UvYW1w?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMicmh0dHBzOi8vcmVhbG1vbmV5LnRoZXN0cmVldC5jb20vaW52ZXN0aW5nL3Rlc2xhLWJlYXJzLW1heWJlLWhpdHRpbmctYS1idW1wLWluLXRoZS1yb2FkLWluLXRoZS1uZWFyLWZ1dHVyZS0xNjEyMzM4M9IBAA?oc=5</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 14:04:00 GMT</t>
+          <t>Wed, 10 May 2023 16:17:32 GMT</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Torque News</t>
+          <t>RealMoney</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2146,7 +2146,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2156,32 +2156,32 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Microsoft could cram more ads into Windows 11 – this time in the Settings app - TechRadar</t>
+          <t>Piper Sandler analyst sees something he likes with Tesla wait times, reiterates call for 65% rally - CNBC</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiamh0dHBzOi8vd3d3LnRlY2hyYWRhci5jb20vbmV3cy9taWNyb3NvZnQtY291bGQtY3JhbS1tb3JlLWFkcy1pbnRvLXdpbmRvd3MtMTEtdGhpcy10aW1lLWluLXRoZS1zZXR0aW5ncy1hcHDSAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiaGh0dHBzOi8vd3d3LmNuYmMuY29tLzIwMjMvMDUvMTAvcGlwZXItc2FuZGxlci1hbmFseXN0LXNlZXMtc29tZXRoaW5nLWhlLWxpa2VzLXdpdGgtdGVzbGEtd2FpdC10aW1lcy5odG1s0gEA?oc=5</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 11:03:36 GMT</t>
+          <t>Wed, 10 May 2023 15:52:12 GMT</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>TechRadar</t>
+          <t>CNBC</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Microsoft</t>
+          <t>Tesla</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2191,32 +2191,32 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>North Korean APT Uses Malicious Microsoft OneDrive Links to Spread New Malware - Dark Reading</t>
+          <t>Tesla strangely denies rumors that new Model 3 is going to be ... - Electrek</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMieWh0dHBzOi8vd3d3LmRhcmtyZWFkaW5nLmNvbS9hdHRhY2tzLWJyZWFjaGVzL25vcnRoLWtvcmVhbi1hcHQtdXNlcy1tYWxpY2lvdXMtbWljcm9zb2Z0LW9uZWRyaXZlLWxpbmtzLXRvLWRyb3AtbmV3LW1hbHdhcmXSAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiTmh0dHBzOi8vZWxlY3RyZWsuY28vMjAyMy8wNS8xMC90ZXNsYS1kZW5pZXMtcnVtb3JzLW5ldy1tb2RlbC0zLXByb2R1Y2VkLWNoaW5hL9IBAA?oc=5</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 14:12:18 GMT</t>
+          <t>Wed, 10 May 2023 14:44:00 GMT</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Dark Reading</t>
+          <t>Electrek</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Microsoft</t>
+          <t>Tesla</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2226,27 +2226,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Microsoft Advertising introduces Bing Chat API for publishers - MarTech</t>
+          <t>Tesla’s stock back to green as Rivian and broader stock market provide support - MarketWatch</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiUmh0dHBzOi8vbWFydGVjaC5vcmcvbWljcm9zb2Z0LWFkdmVydGlzaW5nLWludHJvZHVjZXMtYmluZy1jaGF0LWFwaS1mb3ItcHVibGlzaGVycy_SAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMihgFodHRwczovL3d3dy5tYXJrZXR3YXRjaC5jb20vc3RvcnkvdGVzbGEtc3RvY2stcmVzdW1lcy1yYWxseS1hcy1yaXZpYW5zLXJlc3VsdHMtYW5kLWJyb2FkZXItc3RvY2stbWFya2V0LXJhbGx5LXByb3ZpZGUtc3VwcG9ydC1kYjE0NDYzYtIBigFodHRwczovL3d3dy5tYXJrZXR3YXRjaC5jb20vYW1wL3N0b3J5L3Rlc2xhLXN0b2NrLXJlc3VtZXMtcmFsbHktYXMtcml2aWFucy1yZXN1bHRzLWFuZC1icm9hZGVyLXN0b2NrLW1hcmtldC1yYWxseS1wcm92aWRlLXN1cHBvcnQtZGIxNDQ2M2I?oc=5</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:16:50 GMT</t>
+          <t>Wed, 10 May 2023 14:11:00 GMT</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>MarTech</t>
+          <t>MarketWatch</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Microsoft</t>
+          <t>Tesla</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2261,32 +2261,32 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Microsoft rolls out new chat ads API as part of AI blitz - Marketing Dive</t>
+          <t>Tesla Is Physically Removing the Model S' Radar Sensors - autoevolution</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiVGh0dHBzOi8vd3d3Lm1hcmtldGluZ2RpdmUuY29tL25ld3MvTWljcm9zb2Z0LUJpbmctY2hhdC1hZHMtYXBpLWdlbmVyYXRpdmUtQUkvNjQ5NjYwL9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiZWh0dHBzOi8vd3d3LmF1dG9ldm9sdXRpb24uY29tL25ld3MvdGVzbGEtaXMtcGh5c2ljYWxseS1yZW1vdmluZy10aGUtbW9kZWwtcy1yYWRhci1zZW5zb3JzLTIxNDc5Mi5odG1s0gEA?oc=5</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 14:17:00 GMT</t>
+          <t>Wed, 10 May 2023 15:28:53 GMT</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Marketing Dive</t>
+          <t>autoevolution</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Microsoft</t>
+          <t>Tesla</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2296,27 +2296,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Microsoft exec admits Xbox lost console war to Nintendo, Sony: 'Worst generation to lose' - Yahoo Finance</t>
+          <t>Tesla dominates in EV-heavy Norway where gas cars are nearly defunct - TESLARATI</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiTWh0dHBzOi8vZmluYW5jZS55YWhvby5jb20vbmV3cy9taWNyb3NvZnQtZXhlYy1hZG1pdHMteGJveC1sb3N0LTAxMTU0ODc4NC5odG1s0gFVaHR0cHM6Ly9maW5hbmNlLnlhaG9vLmNvbS9hbXBodG1sL25ld3MvbWljcm9zb2Z0LWV4ZWMtYWRtaXRzLXhib3gtbG9zdC0wMTE1NDg3ODQuaHRtbA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiSWh0dHBzOi8vd3d3LnRlc2xhcmF0aS5jb20vdGVzbGEtZG9taW5hdGVzLW5vcndheS1nYXMtY2Fycy1uZWFybHktZGVmdW5jdC_SAU1odHRwczovL3d3dy50ZXNsYXJhdGkuY29tL3Rlc2xhLWRvbWluYXRlcy1ub3J3YXktZ2FzLWNhcnMtbmVhcmx5LWRlZnVuY3QvYW1wLw?oc=5</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 01:15:00 GMT</t>
+          <t>Wed, 10 May 2023 12:05:54 GMT</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Yahoo Finance</t>
+          <t>TESLARATI</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Microsoft</t>
+          <t>Tesla</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2331,22 +2331,22 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Microsoft Surface Pro 9 tablet with Core i7 and 16GB RAM is back ... - Notebookcheck.net</t>
+          <t>Microsoft Won't Raise Salaries for Full-Time Employees This Year - Business Insider</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMifmh0dHBzOi8vd3d3Lm5vdGVib29rY2hlY2submV0L01pY3Jvc29mdC1TdXJmYWNlLVByby05LXRhYmxldC13aXRoLUNvcmUtaTctYW5kLTE2R0ItUkFNLWlzLWJhY2stb24tc2FsZS1hdC1BbWF6b24uNzE1OTQ3LjAuaHRtbNIBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiZmh0dHBzOi8vd3d3LmJ1c2luZXNzaW5zaWRlci5jb20vbWljcm9zb2Z0LXdvbnQtcmFpc2Utc2FsYXJpZXMtZm9yLWZ1bGwtdGltZS1lbXBsb3llZXMtdGhpcy15ZWFyLTIwMjMtNdIBAA?oc=5</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Sun, 07 May 2023 17:33:06 GMT</t>
+          <t>Wed, 10 May 2023 15:47:00 GMT</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Notebookcheck.net</t>
+          <t>Business Insider</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2366,22 +2366,22 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Why Microsoft's Activision Blizzard Buy Hinges on Cloud Gaming - Variety</t>
+          <t>EU may have ‘bad news’ for Google, Microsoft, Amazon and other tech giants - Times of India</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYWh0dHBzOi8vdmFyaWV0eS5jb20vdmlwL3doeS1taWNyb3NvZnRzLWFjdGl2aXNpb24tYmxpenphcmQtYnV5LWhpbmdlcy1vbi1jbG91ZC1nYW1pbmctMTIzNTYwNTkzMC_SAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMikQFodHRwczovL3RpbWVzb2ZpbmRpYS5pbmRpYXRpbWVzLmNvbS9nYWRnZXRzLW5ld3MvZXUtbWF5LWhhdmUtYmFkLW5ld3MtZm9yLWdvb2dsZS1taWNyb3NvZnQtYW1hem9uLWFuZC1vdGhlci10ZWNoLWdpYW50cy9hcnRpY2xlc2hvdy8xMDAxNDA2MDAuY21z0gGMAWh0dHBzOi8vbS50aW1lc29maW5kaWEuY29tL2dhZGdldHMtbmV3cy9ldS1tYXktaGF2ZS1iYWQtbmV3cy1mb3ItZ29vZ2xlLW1pY3Jvc29mdC1hbWF6b24tYW5kLW90aGVyLXRlY2gtZ2lhbnRzL2FtcF9hcnRpY2xlc2hvdy8xMDAxNDA2MDAuY21z?oc=5</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:00:00 GMT</t>
+          <t>Wed, 10 May 2023 16:31:00 GMT</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Variety</t>
+          <t>Times of India</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2401,22 +2401,22 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MakeMyTrip ties up with Microsoft for AI-backed trip bookings - BusinessLine</t>
+          <t>Microsoft's investment in Builder.ai promises apps for everyone - Quartz</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMigAFodHRwczovL3d3dy50aGVoaW5kdWJ1c2luZXNzbGluZS5jb20vY29tcGFuaWVzL21ha2VteXRyaXAtdGllcy11cC13aXRoLW1pY3Jvc29mdC1mb3ItYWktYmFja2VkLXRyaXAtYm9va2luZ3MvYXJ0aWNsZTY2ODI2OTMwLmVjZdIBhQFodHRwczovL3d3dy50aGVoaW5kdWJ1c2luZXNzbGluZS5jb20vY29tcGFuaWVzL21ha2VteXRyaXAtdGllcy11cC13aXRoLW1pY3Jvc29mdC1mb3ItYWktYmFja2VkLXRyaXAtYm9va2luZ3MvYXJ0aWNsZTY2ODI2OTMwLmVjZS9hbXAv?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiUWh0dHBzOi8vcXouY29tL21pY3Jvc29mdC1zLW5ldy1jb2xsYWJvcmF0aW9uLXdpdGgtYW4tYWktc3RhcnR1cC1wcm9taXMtMTg1MDQyMjcxM9IBAA?oc=5</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:22:45 GMT</t>
+          <t>Wed, 10 May 2023 08:06:28 GMT</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>BusinessLine</t>
+          <t>Quartz</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
@@ -2436,22 +2436,22 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Google and Microsoft's Other AI Race: Server Chips - The Information</t>
+          <t>Microsoft Adds Another AI Company to Its Arsenal. Here's What Investors Should Know - The Motley Fool</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiWGh0dHBzOi8vd3d3LnRoZWluZm9ybWF0aW9uLmNvbS9hcnRpY2xlcy9nb29nbGUtYW5kLW1pY3Jvc29mdHMtb3RoZXItYWktcmFjZS1zZXJ2ZXItY2hpcHPSAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW2h0dHBzOi8vd3d3LmZvb2wuY29tL2ludmVzdGluZy8yMDIzLzA1LzEwL21pY3Jvc29mdC1hZGRzLWFpLWNvbXBhbnktYXJzZW5hbC1pbnZlc3RvcnMta25vdy_SAQA?oc=5</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 14:00:00 GMT</t>
+          <t>Wed, 10 May 2023 16:35:08 GMT</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>The Information</t>
+          <t>The Motley Fool</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -2471,22 +2471,22 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Microsoft to Appeal Against UK's Block of Activision Blizzard Deal 'in ... - VGChartz</t>
+          <t>Microsoft invests in Builder.ai, to partner on expanding market presence - Economic Times</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMifWh0dHBzOi8vd3d3LnZnY2hhcnR6LmNvbS9hcnRpY2xlLzQ1NzEwMC9taWNyb3NvZnQtdG8tYXBwZWFsLWFnYWluc3QtdWtzLWJsb2NrLW9mLWFjdGl2aXNpb24tYmxpenphcmQtZGVhbC1pbi10aGUtY29taW5nLWRheXMv0gEA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMilgFodHRwczovL2Vjb25vbWljdGltZXMuaW5kaWF0aW1lcy5jb20vdGVjaC90ZWNobm9sb2d5L21pY3Jvc29mdC1pbnZlc3RzLWluLWJ1aWxkZXItYWktdG8tcGFydG5lci1vbi1leHBhbmRpbmctbWFya2V0LXByZXNlbmNlL2FydGljbGVzaG93LzEwMDEyMjUyMS5jbXPSAZEBaHR0cHM6Ly9tLmVjb25vbWljdGltZXMuY29tL3RlY2gvdGVjaG5vbG9neS9taWNyb3NvZnQtaW52ZXN0cy1pbi1idWlsZGVyLWFpLXRvLXBhcnRuZXItb24tZXhwYW5kaW5nLW1hcmtldC1wcmVzZW5jZS9hbXBfYXJ0aWNsZXNob3cvMTAwMTIyNTIxLmNtcw?oc=5</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Sun, 07 May 2023 20:04:02 GMT</t>
+          <t>Wed, 10 May 2023 06:09:00 GMT</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>VGChartz</t>
+          <t>Economic Times</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2506,22 +2506,22 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Microsoft ships Authenticator’s number matching feature to all users - OnMSFT.com</t>
+          <t>Microsoft will not give employees salary raise this year - Insider - Reuters</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiPGh0dHBzOi8vd3d3Lm9ubXNmdC5jb20vbmV3cy9udW1iZXItbWF0aGluZy1pbi1hdXRoZW50aWNhdG9yL9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib2h0dHBzOi8vd3d3LnJldXRlcnMuY29tL3RlY2hub2xvZ3kvbWljcm9zb2Z0LXdpbGwtbm90LWdpdmUtZW1wbG95ZWVzLXNhbGFyeS1yYWlzZS10aGlzLXllYXItaW5zaWRlci0yMDIzLTA1LTEwL9IBAA?oc=5</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 12:21:50 GMT</t>
+          <t>Wed, 10 May 2023 16:40:00 GMT</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>OnMSFT.com</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -2531,7 +2531,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2541,32 +2541,32 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>We Found 8 of the Comfiest Under-$50 Loungewear Sets on Amazon - InStyle</t>
+          <t>Fusion power by 2028? Microsoft is betting on it. - The Washington Post</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiR2h0dHBzOi8vd3d3Lmluc3R5bGUuY29tL3NwcmluZy10d28tcGllY2UtbG91bmdld2Vhci1zZXRzLWFtYXpvbi03NDk0NTky0gEA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiSmh0dHBzOi8vd3d3Lndhc2hpbmd0b25wb3N0LmNvbS9idXNpbmVzcy8yMDIzLzA1LzEwL2Z1c2lvbi1wb3dlci1taWNyb3NvZnQv0gEA?oc=5</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 10:00:00 GMT</t>
+          <t>Wed, 10 May 2023 16:00:00 GMT</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>InStyle</t>
+          <t>The Washington Post</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Microsoft</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2576,32 +2576,32 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Amazon sale discounts Kindle ereaders by up to 33 percent - Engadget</t>
+          <t>Leaked email from Microsoft CEO says salaried staff will not get raises this year due to macroeconomic conditions - Fortune</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYWh0dHBzOi8vd3d3LmVuZ2FkZ2V0LmNvbS9hbWF6b24tc2FsZS1kaXNjb3VudHMta2luZGxlLWVyZWFkZXJzLWJ5LXVwLXRvLTMzLXBlcmNlbnQtMDk0OTEzMTU2Lmh0bWzSAWVodHRwczovL3d3dy5lbmdhZGdldC5jb20vYW1wL2FtYXpvbi1zYWxlLWRpc2NvdW50cy1raW5kbGUtZXJlYWRlcnMtYnktdXAtdG8tMzMtcGVyY2VudC0wOTQ5MTMxNTYuaHRtbA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiWGh0dHBzOi8vZm9ydHVuZS5jb20vMjAyMy8wNS8xMC9taWNyb3Jvc2Z0LWN1dHMtYW5udWFsLXNhbGFyeS1sZWFrZWQtZW1haWwtc2F0eWEtbmFkZWxsYS_SAVxodHRwczovL2ZvcnR1bmUuY29tLzIwMjMvMDUvMTAvbWljcm9yb3NmdC1jdXRzLWFubnVhbC1zYWxhcnktbGVha2VkLWVtYWlsLXNhdHlhLW5hZGVsbGEvYW1wLw?oc=5</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 09:50:17 GMT</t>
+          <t>Wed, 10 May 2023 16:03:00 GMT</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Engadget</t>
+          <t>Fortune</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Microsoft</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2611,27 +2611,27 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Click quick: Amazon’s overflowing with coupon codes and discounts on kitchen gadgets - Tri-City Herald</t>
+          <t>Microsoft signs nuclear fusion deal as part of sustainability push - Axios</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiPWh0dHBzOi8vd3d3LnRyaS1jaXR5aGVyYWxkLmNvbS9zaG9wcGluZy9hcnRpY2xlMjc1MTU5MzIxLmh0bWzSAT1odHRwczovL2FtcC50cmktY2l0eWhlcmFsZC5jb20vc2hvcHBpbmcvYXJ0aWNsZTI3NTE1OTMyMS5odG1s?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiTWh0dHBzOi8vd3d3LmF4aW9zLmNvbS8yMDIzLzA1LzEwL21pY3Jvc29mdC1udWNsZWFyLWZ1c2lvbi1zdXN0YWluYWJpbGl0eS13b3Jr0gEA?oc=5</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 14:18:36 GMT</t>
+          <t>Wed, 10 May 2023 13:37:54 GMT</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Tri-City Herald</t>
+          <t>Axios</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Microsoft</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -2646,32 +2646,32 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Amazon Shoppers Love These White Tees and Tanks That Go With ... - Travel + Leisure</t>
+          <t>EU decision clearing $69 bln Microsoft, Activision deal expected ... - Reuters</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiSWh0dHBzOi8vd3d3LnRyYXZlbGFuZGxlaXN1cmUuY29tL3doaXRlLXRlZXMtdGFua3MtdW5kZXItMjUtYW1hem9uLTc0OTQ1NTDSAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMif2h0dHBzOi8vd3d3LnJldXRlcnMuY29tL21hcmtldHMvZGVhbHMvZXUtZGVjaXNpb24tY2xlYXJpbmctNjktYmxuLW1pY3Jvc29mdC1hY3RpdmlzaW9uLWRlYWwtZXhwZWN0ZWQtbWF5LTE1LXNvdXJjZXMtMjAyMy0wNS0xMC_SAQA?oc=5</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 12:00:00 GMT</t>
+          <t>Wed, 10 May 2023 16:25:00 GMT</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Travel + Leisure</t>
+          <t>Reuters</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Microsoft</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2681,32 +2681,32 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Amazon Shoppers Call These Lace-Up Loafers Their 'New Summer ... - PEOPLE</t>
+          <t>Builder.ai announces collaboration with Microsoft to democratize software development - Yahoo Finance</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiQGh0dHBzOi8vcGVvcGxlLmNvbS9mYXNoaW9uL2hleS1kdWRlLWxhY2UtdXAtbG9hZmVycy1kZWFsLWFtYXpvbi_SAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiWmh0dHBzOi8vZmluYW5jZS55YWhvby5jb20vbmV3cy9idWlsZGVyLWFpLWFubm91bmNlcy1jb2xsYWJvcmF0aW9uLW1pY3Jvc29mdC0wNjAwMDAxNTcuaHRtbNIBYmh0dHBzOi8vZmluYW5jZS55YWhvby5jb20vYW1waHRtbC9uZXdzL2J1aWxkZXItYWktYW5ub3VuY2VzLWNvbGxhYm9yYXRpb24tbWljcm9zb2Z0LTA2MDAwMDE1Ny5odG1s?oc=5</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 09:00:00 GMT</t>
+          <t>Wed, 10 May 2023 06:00:00 GMT</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>PEOPLE</t>
+          <t>Yahoo Finance</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Microsoft</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2716,32 +2716,32 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Protecting the Amazon is good business - The Brazilian Report</t>
+          <t>On the road to 2030: Our 2022 Environmental Sustainability Report ... - Microsoft</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiVWh0dHBzOi8vYnJhemlsaWFuLnJlcG9ydC9lbnZpcm9ubWVudC8yMDIzLzA1LzA4L2Nvc3QtYW1hem9uLWRlZm9yZXN0YXRpb24td29ybGQtYmFuay_SAVlodHRwczovL2JyYXppbGlhbi5yZXBvcnQvZW52aXJvbm1lbnQvMjAyMy8wNS8wOC9jb3N0LWFtYXpvbi1kZWZvcmVzdGF0aW9uLXdvcmxkLWJhbmsvYW1wLw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiXmh0dHBzOi8vYmxvZ3MubWljcm9zb2Z0LmNvbS9vbi10aGUtaXNzdWVzLzIwMjMvMDUvMTAvMjAyMi1lbnZpcm9ubWVudGFsLXN1c3RhaW5hYmlsaXR5LXJlcG9ydC_SAQA?oc=5</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:45:39 GMT</t>
+          <t>Wed, 10 May 2023 13:58:37 GMT</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>The Brazilian Report</t>
+          <t>Microsoft</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Microsoft</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -2751,32 +2751,32 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Grab Some Spare Cables, Power Banks and More at Amazon's 1-Day Anker Sale - CNET</t>
+          <t>Microsoft adds customizations to Azure Virtual Desktop - The Register</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiY2h0dHBzOi8vd3d3LmNuZXQuY29tL2RlYWxzL2dyYWItc29tZS1zcGFyZS1jYWJsZXMtcG93ZXItYmFua3MtYW5kLW1vcmUtYXQtYW1hem9ucy0xLWRheS1hbmtlci1zYWxlL9IBbWh0dHBzOi8vd3d3LmNuZXQuY29tL2dvb2dsZS1hbXAvbmV3cy9ncmFiLXNvbWUtc3BhcmUtY2FibGVzLXBvd2VyLWJhbmtzLWFuZC1tb3JlLWF0LWFtYXpvbnMtMS1kYXktYW5rZXItc2FsZS8?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiRGh0dHBzOi8vd3d3LnRoZXJlZ2lzdGVyLmNvbS8yMDIzLzA1LzEwL21pY3Jvc29mdF9henVyZV9jdXN0b21fdG9vbHMv0gEA?oc=5</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:17:00 GMT</t>
+          <t>Wed, 10 May 2023 15:43:00 GMT</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>CNET</t>
+          <t>The Register</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Microsoft</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2786,32 +2786,32 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>This New Amazon Blouse with Puff Sleeves Is Under $30 - PEOPLE</t>
+          <t>NBA announces 78 players expected to attend Microsoft Surface ... - NBA.com</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiPmh0dHBzOi8vcGVvcGxlLmNvbS9mYXNoaW9uL2Rva290b28tZmxvcmFsLXByaW50LWJsb3VzZS1hbWF6b24v0gEA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMibWh0dHBzOi8vd3d3Lm5iYS5jb20vbmV3cy9uYmEtYW5ub3VuY2VzLTc4LXBsYXllcnMtZXhwZWN0ZWQtdG8tYXR0ZW5kLW1pY3Jvc29mdC1zdXJmYWNlLW5iYS1kcmFmdC1jb21iaW5lLTIwMjPSAQA?oc=5</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 14:00:00 GMT</t>
+          <t>Wed, 10 May 2023 14:00:31 GMT</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>PEOPLE</t>
+          <t>NBA.com</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Amazon</t>
+          <t>Microsoft</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2821,32 +2821,32 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Beat the Market the Zacks Way: Procter &amp; Gamble, McDonald's, NVIDIA in Focus - Yahoo Finance</t>
+          <t>Microsoft’s $69 Billion Activision Deal Eyes EU Approval Early Next Week (Report) - Yahoo Entertainment</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiS2h0dHBzOi8vZmluYW5jZS55YWhvby5jb20vbmV3cy9iZWF0LW1hcmtldC16YWNrcy13YXktcHJvY3Rlci0xMTI2MTExODguaHRtbNIBU2h0dHBzOi8vZmluYW5jZS55YWhvby5jb20vYW1waHRtbC9uZXdzL2JlYXQtbWFya2V0LXphY2tzLXdheS1wcm9jdGVyLTExMjYxMTE4OC5odG1s?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiV2h0dHBzOi8vd3d3LnlhaG9vLmNvbS9lbnRlcnRhaW5tZW50L21pY3Jvc29mdC02OS1iaWxsaW9uLWFjdGl2aXNpb24tZGVhbC0xNTUzMzI1NjQuaHRtbNIBX2h0dHBzOi8vd3d3LnlhaG9vLmNvbS9hbXBodG1sL2VudGVydGFpbm1lbnQvbWljcm9zb2Z0LTY5LWJpbGxpb24tYWN0aXZpc2lvbi1kZWFsLTE1NTMzMjU2NC5odG1s?oc=5</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 11:26:11 GMT</t>
+          <t>Wed, 10 May 2023 15:53:32 GMT</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Yahoo Finance</t>
+          <t>Yahoo Entertainment</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>NVIDIA</t>
+          <t>Microsoft</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2856,27 +2856,27 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Nvidia's new mid-end gaming series to be mild boost to peripheral ... - DIGITIMES</t>
+          <t>AI Will Benefit Big Tech, Not Just Microsoft - Julian Lin With Kirk Spano - Seeking Alpha</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYWh0dHBzOi8vd3d3LmRpZ2l0aW1lcy5jb20vbmV3cy9hMjAyMzA1MDhQRDIxNC9nYW1pbmctaWMtZGVzaWduLWRpc3RyaWJ1dGlvbi1udmlkaWEtcGFja2FnaW5nLmh0bWzSAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMi7QFodHRwczovL3NlZWtpbmdhbHBoYS5jb20vYXJ0aWNsZS80NjAyNTUxLWFpLXdpbGwtYmVuZWZpdC1iaWctdGVjaC1ub3QtanVzdC1taWNyb3NvZnQtanVsaWFuLWxpbi13aXRoLWtpcmstc3Bhbm8_c291cmNlPWNvbnRlbnRfdHlwZSUzQXJlYWN0JTdDZmlyc3RfbGV2ZWxfdXJsJTNBaG9tZSU3Q3NlY3Rpb24lM0FsYXRlc3RfYXJ0aWNsZXMlN0NzZWN0aW9uX2Fzc2V0JTNBbGF0ZXN0X2FydGljbGVzJTdDbGluZSUzQTHSAQA?oc=5</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 09:50:20 GMT</t>
+          <t>Wed, 10 May 2023 16:15:00 GMT</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>DIGITIMES</t>
+          <t>Seeking Alpha</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>NVIDIA</t>
+          <t>Microsoft</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2891,27 +2891,27 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>VRChat to disappears from the Meta Quest 1 - MIXED Reality News</t>
+          <t>Valley teacher surprised with $30,000 as part of reward from Amazon - KFSN-TV</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiRGh0dHBzOi8vbWl4ZWQtbmV3cy5jb20vZW4vdnJjaGF0LXRvLWRpc2FwcGVhci1mcm9tLXRoZS1tZXRhLXF1ZXN0LTEv0gFKaHR0cHM6Ly9taXhlZC1uZXdzLmNvbS9lbi92cmNoYXQtdG8tZGlzYXBwZWFyLWZyb20tdGhlLW1ldGEtcXVlc3QtMS8_YW1wPTE?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW2h0dHBzOi8vYWJjMzAuY29tL3Nlcmdpby1kZS1hbGJhLXZhbGxleS10ZWFjaGVyLWFtYXpvbi1lbmdpbmVlci1vZi10aGUteWVhci1tb25leS8xMzIzMDYwNS_SAV9odHRwczovL2FiYzMwLmNvbS9hbXAvc2VyZ2lvLWRlLWFsYmEtdmFsbGV5LXRlYWNoZXItYW1hem9uLWVuZ2luZWVyLW9mLXRoZS15ZWFyLW1vbmV5LzEzMjMwNjA1Lw?oc=5</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 14:07:51 GMT</t>
+          <t>Wed, 10 May 2023 16:10:15 GMT</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MIXED Reality News</t>
+          <t>KFSN-TV</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Meta</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
@@ -2926,32 +2926,32 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Scammers Impersonated Meta With Hacked Verified Facebook Pages - PCMag</t>
+          <t>Davenport Amazon facility to open by August, hiring 1,000 - Quad-City Times</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiWWh0dHBzOi8vd3d3LnBjbWFnLmNvbS9uZXdzL3NjYW1tZXJzLWltcGVyc29uYXRlZC1tZXRhLXdpdGgtaGFja2VkLXZlcmlmaWVkLWZhY2Vib29rLXBhZ2Vz0gEA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiiQFodHRwczovL3FjdGltZXMuY29tL25ld3MvbG9jYWwvZGF2ZW5wb3J0LWFtYXpvbi1mYWNpbGl0eS10by1vcGVuLWJ5LWF1Z3VzdC1oaXJpbmctMS0wMDAvYXJ0aWNsZV8zMGRjNjkwNy05ZGJjLTVhNDUtODM5YS0zZGM1NTYwZDYyYjMuaHRtbNIBAA?oc=5</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sun, 07 May 2023 19:14:37 GMT</t>
+          <t>Tue, 09 May 2023 21:14:21 GMT</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>PCMag</t>
+          <t>Quad-City Times</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Meta</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -2961,27 +2961,27 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Meta May End Facebook, Instagram News Content in Canada Over Act - Bloomberg</t>
+          <t>Report: Amazon abandons plans for grocery stores in six Twin Cities suburbs - Bring Me The News</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMicmh0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDIzLTA1LTA4L21ldGEtbWF5LWVuZC1mYWNlYm9vay1pbnN0YWdyYW0tbmV3cy1jb250ZW50LWluLWNhbmFkYS1vdmVyLWFjdNIBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMieWh0dHBzOi8vYnJpbmdtZXRoZW5ld3MuY29tL21pbm5lc290YS1saWZlc3R5bGUvcmVwb3J0LWFtYXpvbi1hYmFuZG9ucy1wbGFucy1mb3ItZ3JvY2VyeS1zdG9yZXMtaW4tc2l4LXR3aW4tY2l0aWVzLXN1YnVyYnPSAQA?oc=5</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:31:30 GMT</t>
+          <t>Wed, 10 May 2023 02:16:04 GMT</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Bloomberg</t>
+          <t>Bring Me The News</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Meta</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -2996,32 +2996,32 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Fact check: Is Meta really having a $12 billion impact on NC’s economy? - CBS17.com</t>
+          <t>Amazon Fulfillment Center in Davenport expected to open in August - KWQC</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMic2h0dHBzOi8vd3d3LmNiczE3LmNvbS9uZXdzL25vcnRoLWNhcm9saW5hLW5ld3MvZmFjdC1jaGVjay1pcy1tZXRhLXJlYWxseS1oYXZpbmctYS0xMi1iaWxsaW9uLWltcGFjdC1vbi1uY3MtZWNvbm9teS_SAXdodHRwczovL3d3dy5jYnMxNy5jb20vbmV3cy9ub3J0aC1jYXJvbGluYS1uZXdzL2ZhY3QtY2hlY2staXMtbWV0YS1yZWFsbHktaGF2aW5nLWEtMTItYmlsbGlvbi1pbXBhY3Qtb24tbmNzLWVjb25vbXkvYW1wLw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiWWh0dHBzOi8vd3d3Lmt3cWMuY29tLzIwMjMvMDUvMTAvYW1hem9uLWZ1bGZpbGxtZW50LWNlbnRlci1kYXZlbnBvcnQtZXhwZWN0ZWQtb3Blbi1hdWd1c3Qv0gFoaHR0cHM6Ly93d3cua3dxYy5jb20vMjAyMy8wNS8xMC9hbWF6b24tZnVsZmlsbG1lbnQtY2VudGVyLWRhdmVucG9ydC1leHBlY3RlZC1vcGVuLWF1Z3VzdC8_b3V0cHV0VHlwZT1hbXA?oc=5</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 14:05:54 GMT</t>
+          <t>Wed, 10 May 2023 01:59:00 GMT</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>CBS17.com</t>
+          <t>KWQC</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Meta</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -3031,32 +3031,32 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>The Ultimate List Of The Greatest Meta Movies, Ranked - Giant Freakin Robot</t>
+          <t>Amazon Prime Members Could Get $10 Credit to Pick up Orders - Money</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiRWh0dHBzOi8vd3d3LmdpYW50ZnJlYWtpbnJvYm90LmNvbS9lbnQvbW9zdC1tZXRhLW1vdmllcy1ldmVyLW1hZGUuaHRtbNIBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiN2h0dHBzOi8vbW9uZXkuY29tL2FtYXpvbi1wcmltZS1vZmZlci0xMC1kb2xsYXJzLXBpY2t1cC_SAQA?oc=5</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 05:58:42 GMT</t>
+          <t>Wed, 10 May 2023 15:01:50 GMT</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Giant Freakin Robot</t>
+          <t>Money</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Meta</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3066,32 +3066,32 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Photos and Video: Get a 1st Look at Schele Williams' Reimagined Take on Disney's Aida in the Netherlands - Playbill</t>
+          <t>Netflix, Amazon Among Top Investors Expanding Spain’s Entertainment Biz - Variety</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMihgFodHRwczovL3d3dy5wbGF5YmlsbC5jb20vYXJ0aWNsZS9waG90b3MtYW5kLXZpZGVvLWdldC1hLTFzdC1sb29rLWF0LXNjaGVsZS13aWxsaWFtcy1yZWltYWdpbmVkLXRha2Utb24tZGlzbmV5cy1haWRhLWluLXRoZS1uZXRoZXJsYW5kc9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiTmh0dHBzOi8vdmFyaWV0eS5jb20vMjAyMy90di9nbG9iYWwvbmV0ZmxpeC1hbWF6b24tc3BhaW4taW52ZXN0bWVudC0xMjM1NjA3NTY0L9IBUmh0dHBzOi8vdmFyaWV0eS5jb20vMjAyMy90di9nbG9iYWwvbmV0ZmxpeC1hbWF6b24tc3BhaW4taW52ZXN0bWVudC0xMjM1NjA3NTY0L2FtcC8?oc=5</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 14:20:46 GMT</t>
+          <t>Wed, 10 May 2023 16:30:00 GMT</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Playbill</t>
+          <t>Variety</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Disney</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -3101,32 +3101,32 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>'The Little Mermaid' Clip: Romance Is in the Air - Collider</t>
+          <t>Amazon stock rallies toward longest winning streak in 9 months - MarketWatch</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiKWh0dHBzOi8vY29sbGlkZXIuY29tL2xpdHRsZS1tZXJtYWlkLWNsaXAv0gEA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiaWh0dHBzOi8vd3d3Lm1hcmtldHdhdGNoLmNvbS9zdG9yeS9hbWF6b24tc3RvY2stcmFsbGllcy10b3dhcmQtbG9uZ2VzdC13aW5uaW5nLXN0cmVhay1pbi05LW1vbnRocy1kODhjYTIxZdIBbWh0dHBzOi8vd3d3Lm1hcmtldHdhdGNoLmNvbS9hbXAvc3RvcnkvYW1hem9uLXN0b2NrLXJhbGxpZXMtdG93YXJkLWxvbmdlc3Qtd2lubmluZy1zdHJlYWstaW4tOS1tb250aHMtZDg4Y2EyMWU?oc=5</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 14:18:00 GMT</t>
+          <t>Wed, 10 May 2023 15:58:00 GMT</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Collider</t>
+          <t>MarketWatch</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Disney</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3136,27 +3136,27 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Disney Stock Has a Lot to Prove This Week - The Motley Fool</t>
+          <t>Amazon (and Other Platforms) vs. Third-Party Sellers: Complicated ... - UCLA</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiVGh0dHBzOi8vd3d3LmZvb2wuY29tL2ludmVzdGluZy8yMDIzLzA1LzA4L2Rpc25leS1zdG9jay1oYXMtYS1sb3QtdG8tcHJvdmUtdGhpcy13ZWVrL9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiZmh0dHBzOi8vYW5kZXJzb24tcmV2aWV3LnVjbGEuZWR1L2FtYXpvbi1hbmQtb3RoZXItcGxhdGZvcm1zLXZzLXRoaXJkLXBhcnR5LXNlbGxlcnMtY29tcGxpY2F0ZWQtZGViYXRlL9IBAA?oc=5</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:24:00 GMT</t>
+          <t>Wed, 10 May 2023 16:00:12 GMT</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>The Motley Fool</t>
+          <t>UCLA</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Disney</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -3171,27 +3171,27 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Above and Beyond: Professional Disney Dreamers and Doers - WDW Magazine</t>
+          <t>Amazon To License Original Content To Other Media Companies - Slashdot</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiU2h0dHBzOi8vd3d3Lndkdy1tYWdhemluZS5jb20vYWJvdmUtYW5kLWJleW9uZC1wcm9mZXNzaW9uYWwtZGlzbmV5LWRyZWFtcy1hbmQtZG9lcnMv0gEA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMibGh0dHBzOi8vbmV3cy5zbGFzaGRvdC5vcmcvc3RvcnkvMjMvMDUvMTAvMDM0NzI0MC9hbWF6b24tdG8tbGljZW5zZS1vcmlnaW5hbC1jb250ZW50LXRvLW90aGVyLW1lZGlhLWNvbXBhbmllc9IBAA?oc=5</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:16:11 GMT</t>
+          <t>Wed, 10 May 2023 10:00:00 GMT</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>WDW Magazine</t>
+          <t>Slashdot</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Disney</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
@@ -3206,32 +3206,32 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>New 'Encanto' and 'Soul' Experiences on the Disney Magic - WDW Magazine</t>
+          <t>Roku and Walmart Take on Amazon in Creepy New Deal - TheStreet</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiN2h0dHBzOi8vd3d3Lndkdy1tYWdhemluZS5jb20vZW5jYW50by1zb3VsLWRpc25leS1tYWdpYy_SAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiVmh0dHBzOi8vd3d3LnRoZXN0cmVldC5jb20vcmV0YWlsZXJzL3Jva3UtYW5kLXdhbG1hcnQtdGFrZS1vbi1hbWF6b24taW4tY3JlZXB5LW5ldy1kZWFs0gEA?oc=5</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 14:14:48 GMT</t>
+          <t>Wed, 10 May 2023 15:12:49 GMT</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>WDW Magazine</t>
+          <t>TheStreet</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Disney</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -3241,27 +3241,27 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Are You A True Disney Fan Or Do You Make These Common ... - Disney Dining</t>
+          <t>Amazon Announces A Black Friday NFL Game to Air Exclusively on Amazon Prime - Cord Cutters News</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiemh0dHBzOi8vd3d3LmRpc25leWRpbmluZy5jb20vYXJlLXlvdS1hLXRydWUtZGlzbmV5LWZhbi1vci1kby15b3UtbWFrZS10aGVzZS1jb21tb24tY2hhcmFjdGVyLW1pc3Rha2VzLWF0LWRpc25leS1wYXJrcy1sZjEv0gEA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiaGh0dHBzOi8vY29yZGN1dHRlcnNuZXdzLmNvbS9hbWF6b24tYW5ub3VuY2VzLWEtYmxhY2stZnJpZGF5LW5mbC1nYW1lLXRvLWFpci1leGNsdXNpdmVseS1vbi1hbWF6b24tcHJpbWUv0gFuaHR0cHM6Ly9jb3JkY3V0dGVyc25ld3MuY29tL2FtYXpvbi1hbm5vdW5jZXMtYS1ibGFjay1mcmlkYXktbmZsLWdhbWUtdG8tYWlyLWV4Y2x1c2l2ZWx5LW9uLWFtYXpvbi1wcmltZS8_YW1wPTE?oc=5</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:21:16 GMT</t>
+          <t>Wed, 10 May 2023 13:41:09 GMT</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Disney Dining</t>
+          <t>Cord Cutters News</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Disney</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3276,32 +3276,32 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Disney Park Confirms Return of Nighttime Spectacular - Inside the Magic</t>
+          <t>New Items from Nespresso, KitchenAid, and More Just Landed on Amazon, and Here Are the 10 Best Deals - Yahoo Life</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiXGh0dHBzOi8vaW5zaWRldGhlbWFnaWMubmV0LzIwMjMvMDUvZGlzbmV5LXBhcmstY29uZmlybXMtcmV0dXJuLW9mLW5pZ2h0dGltZS1zcGVjdGFjdWxhci1jajEv0gEA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiU2h0dHBzOi8vd3d3LnlhaG9vLmNvbS9saWZlc3R5bGUvaXRlbXMtbmVzcHJlc3NvLWtpdGNoZW5haWQtbW9yZS1qdXN0LTExMDAwMDI0Mi5odG1s0gFbaHR0cHM6Ly93d3cueWFob28uY29tL2FtcGh0bWwvbGlmZXN0eWxlL2l0ZW1zLW5lc3ByZXNzby1raXRjaGVuYWlkLW1vcmUtanVzdC0xMTAwMDAyNDIuaHRtbA?oc=5</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:28:02 GMT</t>
+          <t>Wed, 10 May 2023 11:00:00 GMT</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Inside the Magic</t>
+          <t>Yahoo Life</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Disney</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -3311,32 +3311,32 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Exterior refurbishment of Disney's BoardWalk Inn continues at Walt ... - wdwmagic.com</t>
+          <t>Amazon Anywhere Lets Consumers Buy Real Merchandise in Video ... - Retail Info Systems News</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMimAFodHRwczovL3d3dy53ZHdtYWdpYy5jb20vcmVzb3J0cy9kaXNuZXlzLWJvYXJkd2Fsay1pbm4vbmV3cy8wOG1heTIwMjMtZXh0ZXJpb3ItcmVmdXJiaXNobWVudC1vZi1kaXNuZXlzLWJvYXJkd2Fsay1pbm4tY29udGludWVzLWF0LXdhbHQtZGlzbmV5LXdvcmxkLmh0bdIBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiU2h0dHBzOi8vcmlzbmV3cy5jb20vYW1hem9uLWFueXdoZXJlLWxldHMtY29uc3VtZXJzLWJ1eS1yZWFsLW1lcmNoYW5kaXNlLXZpZGVvLWdhbWVz0gEA?oc=5</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:15:00 GMT</t>
+          <t>Wed, 10 May 2023 16:35:13 GMT</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>wdwmagic.com</t>
+          <t>Retail Info Systems News</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Disney</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -3346,32 +3346,32 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>If You Can't Match The Disney Parent To The Random Quote, I'm ... - BuzzFeed</t>
+          <t>Pick Up An Echo Dot Smart Speaker in Amazon's Sale - IGN</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiQWh0dHBzOi8vd3d3LmJ1enpmZWVkLmNvbS9tYWNrYmVuZC9kaXNuZXktcGFyZW50LXF1b3RlLXRyaXZpYS1xdWl60gEA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiTmh0dHBzOi8vd3d3Lmlnbi5jb20vYXJ0aWNsZXMvcGljay11cC1hbi1lY2hvLWRvdC1zbWFydC1zcGVha2VyLWluLWFtYXpvbnMtc2FsZdIBAA?oc=5</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 12:34:14 GMT</t>
+          <t>Wed, 10 May 2023 15:24:33 GMT</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>BuzzFeed</t>
+          <t>IGN</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Disney</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3381,32 +3381,32 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>S&amp;P 500 News and Forecast: Wednesday leads week with April CPI, Disney earnings - FXStreet</t>
+          <t>Over 23,000 Amazon Shoppers Swear By This Best-Selling, Hands ... - Southern Living</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMid2h0dHBzOi8vd3d3LmZ4c3RyZWV0LmNvbS9uZXdzL3NwLTUwMC1uZXdzLWFuZC1mb3JlY2FzdC13ZWRuZXNkYXktbGVhZHMtd2Vlay13aXRoLWFwcmlsLWNwaS1kaXNuZXktZWFybmluZ3MtMjAyMzA1MDgxMzUy0gF7aHR0cHM6Ly93d3cuZnhzdHJlZXQuY29tL2FtcC9uZXdzL3NwLTUwMC1uZXdzLWFuZC1mb3JlY2FzdC13ZWRuZXNkYXktbGVhZHMtd2Vlay13aXRoLWFwcmlsLWNwaS1kaXNuZXktZWFybmluZ3MtMjAyMzA1MDgxMzUy?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW2h0dHBzOi8vd3d3LnNvdXRoZXJubGl2aW5nLmNvbS9raXRjaGVuLWdpem1vLXNuYXAtbi1zdHJhaW4tcG90LXN0cmFpbmVyLWFtYXpvbi1zYWxlLTc0OTYwODPSAQA?oc=5</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:52:51 GMT</t>
+          <t>Wed, 10 May 2023 14:00:00 GMT</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FXStreet</t>
+          <t>Southern Living</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Disney</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3416,32 +3416,32 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Inflation, Debt, and Disney: After a Losing Week, Markets Face ... - Investing.com</t>
+          <t>Fort Wayne Amazon center remains closed after employee death ... - Inside INdiana Business</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMidGh0dHBzOi8vd3d3LmludmVzdGluZy5jb20vYW5hbHlzaXMvaW5mbGF0aW9uLWRlYnQtYW5kLWRpc25leS1hZnRlci1hLWxvc2luZy13ZWVrLW1hcmtldHMtZmFjZS1jcml0aWNhbC1sZWctMjAwNjM3ODk50gF8aHR0cHM6Ly9tLmludmVzdGluZy5jb20vYW5hbHlzaXMvaW5mbGF0aW9uLWRlYnQtYW5kLWRpc25leS1hZnRlci1hLWxvc2luZy13ZWVrLW1hcmtldHMtZmFjZS1jcml0aWNhbC1sZWctMjAwNjM3ODk5P2FtcE1vZGU9MQ?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMia2h0dHBzOi8vd3d3Lmluc2lkZWluZGlhbmFidXNpbmVzcy5jb20vYXJ0aWNsZXMvZm9ydC13YXluZS1hbWF6b24tY2VudGVyLXJlbWFpbnMtY2xvc2VkLWFmdGVyLWVtcGxveWVlLWRlYXRo0gEA?oc=5</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:31:00 GMT</t>
+          <t>Wed, 10 May 2023 15:42:00 GMT</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Investing.com</t>
+          <t>Inside INdiana Business</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Disney</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -3451,32 +3451,32 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>The Most Popular Movies On Netflix Right Now Besides 'A Man Called Otto' - HuffPost</t>
+          <t>Amazon shoppers rush to buy popular $2,100 laptop now scanning at checkout for less than $1,000... - The US Sun</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiYmh0dHBzOi8vd3d3Lmh1ZmZwb3N0LmNvbS9lbnRyeS9hLW1hbi1jYWxsZWQtb3R0by1wb3B1bGFyLW5ldGZsaXgtbW92aWVzX2xfNjQ1ODkwMDVlNGIwZmYyMmUzN2I3MDEw0gFmaHR0cHM6Ly93d3cuaHVmZnBvc3QuY29tL2VudHJ5L2EtbWFuLWNhbGxlZC1vdHRvLXBvcHVsYXItbmV0ZmxpeC1tb3ZpZXNfbF82NDU4OTAwNWU0YjBmZjIyZTM3YjcwMTAvYW1w?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW2h0dHBzOi8vd3d3LnRoZS1zdW4uY29tL3RlY2gvODA4NDU4OC9hbWF6b24tc2hvcHBlcnMtcG9wdWxhci1sZW5vdm8tbGFwdG9wLWRlYWwtc2F2ZS1tb25leS_SAV9odHRwczovL3d3dy50aGUtc3VuLmNvbS90ZWNoLzgwODQ1ODgvYW1hem9uLXNob3BwZXJzLXBvcHVsYXItbGVub3ZvLWxhcHRvcC1kZWFsLXNhdmUtbW9uZXkvYW1wLw?oc=5</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:23:32 GMT</t>
+          <t>Wed, 10 May 2023 15:05:09 GMT</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>HuffPost</t>
+          <t>The US Sun</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3486,27 +3486,27 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Netflix's terrifying horror series Marianne is leaving viewers 'scared for their lives' - Daily Mail</t>
+          <t>Anker charging accessories are up to 42 percent off on Amazon - Engadget</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMifmh0dHBzOi8vd3d3LmRhaWx5bWFpbC5jby51ay9uZXdzL2FydGljbGUtMTIwNTIyMTcvTmV0ZmxpeHMtdGVycmlmeWluZy1ob3Jyb3Itc2VyaWVzLU1hcmlhbm5lLWxlYXZpbmctdmlld2Vycy1zY2FyZWQtbGl2ZXMuaHRtbNIBggFodHRwczovL3d3dy5kYWlseW1haWwuY28udWsvbmV3cy9hcnRpY2xlLTEyMDUyMjE3L2FtcC9OZXRmbGl4cy10ZXJyaWZ5aW5nLWhvcnJvci1zZXJpZXMtTWFyaWFubmUtbGVhdmluZy12aWV3ZXJzLXNjYXJlZC1saXZlcy5odG1s?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiZWh0dHBzOi8vd3d3LmVuZ2FkZ2V0LmNvbS9hbmtlci1jaGFyZ2luZy1hY2Nlc3Nvcmllcy1hcmUtdXAtdG8tNDItcGVyY2VudC1vZmYtb24tYW1hem9uLTE1MzA0Mzg2NC5odG1s0gFpaHR0cHM6Ly93d3cuZW5nYWRnZXQuY29tL2FtcC9hbmtlci1jaGFyZ2luZy1hY2Nlc3Nvcmllcy1hcmUtdXAtdG8tNDItcGVyY2VudC1vZmYtb24tYW1hem9uLTE1MzA0Mzg2NC5odG1s?oc=5</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 12:42:20 GMT</t>
+          <t>Wed, 10 May 2023 15:31:24 GMT</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Daily Mail</t>
+          <t>Engadget</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>Amazon</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3521,32 +3521,32 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Writers Strike Questions: The Netflix Precedent &amp; the 'Munich' Strategy - Puck</t>
+          <t>New Nvidia RTX 4070 variant based on larger GPU rumoured - PC Gamer</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiVWh0dHBzOi8vcHVjay5uZXdzL3dyaXRlcnMtc3RyaWtlLXF1ZXN0aW9ucy10aGUtbmV0ZmxpeC1wcmVjZWRlbnQtdGhlLW11bmljaC1zdHJhdGVneS_SAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiUWh0dHBzOi8vd3d3LnBjZ2FtZXIuY29tL25ldy1udmlkaWEtcnR4LTQwNzAtdmFyaWFudC1iYXNlZC1vbi1sYXJnZXItZ3B1LXJ1bW91cmVkL9IBAA?oc=5</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 03:21:50 GMT</t>
+          <t>Wed, 10 May 2023 16:03:23 GMT</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Puck</t>
+          <t>PC Gamer</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3556,27 +3556,27 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>9 new Netflix movies and shows to watch this week (May 8) - Hidden Remote</t>
+          <t>Zacks Investment Ideas feature highlights: Apple, Amazon, Nvidia, Elf Beauty and Salesforce - Yahoo Finance</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiXGh0dHBzOi8vaGlkZGVucmVtb3RlLmNvbS8yMDIzLzA1LzA4LzktbmV3LW5ldGZsaXgtbW92aWVzLWFuZC1zaG93cy10by13YXRjaC10aGlzLXdlZWstbWF5LTgv0gEA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiV2h0dHBzOi8vZmluYW5jZS55YWhvby5jb20vbmV3cy96YWNrcy1pbnZlc3RtZW50LWlkZWFzLWZlYXR1cmUtaGlnaGxpZ2h0cy0xMTQyMTE4MjUuaHRtbNIBX2h0dHBzOi8vZmluYW5jZS55YWhvby5jb20vYW1waHRtbC9uZXdzL3phY2tzLWludmVzdG1lbnQtaWRlYXMtZmVhdHVyZS1oaWdobGlnaHRzLTExNDIxMTgyNS5odG1s?oc=5</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:49:51 GMT</t>
+          <t>Wed, 10 May 2023 11:42:11 GMT</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Hidden Remote</t>
+          <t>Yahoo Finance</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
@@ -3591,27 +3591,27 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Jameela Jamil Backed Out of Audition for Netflix's You Over Racy ... - MovieWeb</t>
+          <t>Nvidia's Neural Texture Compression technology should alleviate ... - PC Gamer</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiMGh0dHBzOi8vbW92aWV3ZWIuY29tL2phbWVlbGEtamFtaWwteW91LWF1ZGl0aW9uL9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiZWh0dHBzOi8vd3d3LnBjZ2FtZXIuY29tL252aWRpYXMtbmV1cmFsLXRleHR1cmUtY29tcHJlc3Npb24tdGVjaG5vbG9neS1zaG91bGQtYWxsZXZpYXRlLXZyYW0tY29uY2VybnMv0gEA?oc=5</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 14:02:00 GMT</t>
+          <t>Wed, 10 May 2023 04:18:28 GMT</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>MovieWeb</t>
+          <t>PC Gamer</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3626,32 +3626,32 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Vietnam censors Netflix shows for 'hurting the feelings of the people' - Coda Story</t>
+          <t>How AI and Crowdsourcing Can Advance mRNA Vaccine Distribution - Nvidia</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiSGh0dHBzOi8vd3d3LmNvZGFzdG9yeS5jb20vYXV0aG9yaXRhcmlhbi10ZWNoL3ZpZXRuYW0tbmV0ZmxpeC1jZW5zb3JzaGlwL9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiNmh0dHBzOi8vYmxvZ3MubnZpZGlhLmNvbS9ibG9nLzIwMjMvMDUvMTAvdmFjY2luZS1tcm5hL9IBAA?oc=5</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:52:15 GMT</t>
+          <t>Wed, 10 May 2023 13:04:23 GMT</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>Coda Story</t>
+          <t>Nvidia</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3661,32 +3661,32 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Netflix tackles opioid crisis with first look at 'Painkiller' - Entertainment Weekly News</t>
+          <t>NVIDIA GeForce RTX 4060 Series &amp; AMD Radeon RX 7600 Launch ... - guru3d.com</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiRWh0dHBzOi8vZXcuY29tL3R2L25ldGZsaXgtcGFpbmtpbGxlci1maXJzdC1sb29rLXBob3Rvcy1wcmVtaWVyZS1kYXRlL9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMib2h0dHBzOi8vd3d3Lmd1cnUzZC5jb20vbmV3cy1zdG9yeS9udmlkaWEtZ2Vmb3JjZS1ydHgtNDA2MC1zZXJpZXMtYW1kLXJhZGVvbi1yeC03NjAwLWxhdW5jaC1kYXRlcy11bmNvdmVyZWQuaHRtbNIBAA?oc=5</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 14:00:00 GMT</t>
+          <t>Wed, 10 May 2023 16:13:00 GMT</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Entertainment Weekly News</t>
+          <t>guru3d.com</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3696,27 +3696,27 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Best Documentary Series on Netflix in 2023 (May Update) - Ready Steady Cut</t>
+          <t>Lenovo’s Tiny ThinkStation Workstation Packs NVIDIA’s Smallest Turing GPU &amp; Intel Core i9-13900 CPU - Wccftech</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiS2h0dHBzOi8vcmVhZHlzdGVhZHljdXQuY29tLzIwMjMvMDUvMDgvYmVzdC1kb2N1bWVudGFyeS1zZXJpZXMtbmV0ZmxpeC0yMDIzL9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMibWh0dHBzOi8vd2NjZnRlY2guY29tL2xlbm92by10aW55LXRoaW5rc3RhdGlvbi13b3Jrc3RhdGlvbi1udmlkaWEtc21hbGxlc3QtdHVyaW5nLWdwdS1pbnRlbC1jb3JlLWk5LTEzOTAwLWNwdS_SAXFodHRwczovL3djY2Z0ZWNoLmNvbS9sZW5vdm8tdGlueS10aGlua3N0YXRpb24td29ya3N0YXRpb24tbnZpZGlhLXNtYWxsZXN0LXR1cmluZy1ncHUtaW50ZWwtY29yZS1pOS0xMzkwMC1jcHUvYW1wLw?oc=5</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 09:40:49 GMT</t>
+          <t>Wed, 10 May 2023 16:02:00 GMT</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Ready Steady Cut</t>
+          <t>Wccftech</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Netflix</t>
+          <t>NVIDIA</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
@@ -3731,32 +3731,32 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Best Stock to Buy: C3.ai vs. Roblox - The Motley Fool</t>
+          <t>How Meta's using AI on Facebook and Instagram - Yahoo Finance</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiS2h0dHBzOi8vd3d3LmZvb2wuY29tL2ludmVzdGluZy8yMDIzLzA1LzA4L2Jlc3Qtc3RvY2stdG8tYnV5LWMzYWktdnMtcm9ibG94L9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiUGh0dHBzOi8vZmluYW5jZS55YWhvby5jb20vdmlkZW8vbWV0YXMtdXNpbmctYWktZmFjZWJvb2staW5zdGFncmFtLTE1NDE0MzY2OS5odG1s0gFYaHR0cHM6Ly9maW5hbmNlLnlhaG9vLmNvbS9hbXBodG1sL3ZpZGVvL21ldGFzLXVzaW5nLWFpLWZhY2Vib29rLWluc3RhZ3JhbS0xNTQxNDM2NjkuaHRtbA?oc=5</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:54:03 GMT</t>
+          <t>Wed, 10 May 2023 15:41:43 GMT</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>The Motley Fool</t>
+          <t>Yahoo Finance</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Roblox</t>
+          <t>Meta</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -3766,32 +3766,32 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Brainard Capital Management Invests in Roblox Co., Highlighting ... - Best Stocks</t>
+          <t>Meta to continue investing in India region, says country head Sandhya Devanathan - Economic Times</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiSGh0dHBzOi8vYmVzdHN0b2Nrcy5jb20vYnJhaW5hcmQtY2FwaXRhbC1tYW5hZ2VtZW50LWludmVzdHMtaW4tcm9ibG94LWNvL9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMingFodHRwczovL2Vjb25vbWljdGltZXMuaW5kaWF0aW1lcy5jb20vdGVjaC90ZWNobm9sb2d5L21ldGEtdG8tY29udGludWUtaW52ZXN0aW5nLWluLWluZGlhLXJlZ2lvbi1zYXlzLWNvdW50cnktaGVhZC1zYW5kaHlhLWRldmFuYXRoYW4vYXJ0aWNsZXNob3cvMTAwMTA5MzA5LmNtc9IBmQFodHRwczovL20uZWNvbm9taWN0aW1lcy5jb20vdGVjaC90ZWNobm9sb2d5L21ldGEtdG8tY29udGludWUtaW52ZXN0aW5nLWluLWluZGlhLXJlZ2lvbi1zYXlzLWNvdW50cnktaGVhZC1zYW5kaHlhLWRldmFuYXRoYW4vYW1wX2FydGljbGVzaG93LzEwMDEwOTMwOS5jbXM?oc=5</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:26:18 GMT</t>
+          <t>Wed, 10 May 2023 00:30:00 GMT</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Best Stocks</t>
+          <t>Economic Times</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Roblox</t>
+          <t>Meta</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -3801,32 +3801,32 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Coinbase Weighs UAE as Potential International Hub, CEO Says - Bloomberg</t>
+          <t>Overwatch 2 players worried Junker Queen will dominate meta after ... - Dexerto</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMicGh0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy9hcnRpY2xlcy8yMDIzLTA1LTA4L3VhZS1hcHByb2FjaC10by1jcnlwdG8tbW9yZS1mb3J3YXJkLXRoaW5raW5nLXRoYW4tdXMtY29pbmJhc2XSAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMidmh0dHBzOi8vd3d3LmRleGVydG8uY29tL292ZXJ3YXRjaC9vdmVyd2F0Y2gtMi1wbGF5ZXJzLXdvcnJpZWQtanVua2VyLXF1ZWVuLXdpbGwtZG9taW5hdGUtbWV0YS1hZnRlci1naWdhYnVmZnMtMjE0MDk4Ny_SAQA?oc=5</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 11:29:41 GMT</t>
+          <t>Wed, 10 May 2023 15:43:08 GMT</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Bloomberg</t>
+          <t>Dexerto</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Meta</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -3836,32 +3836,32 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Coinbase CEO Says SEC Dispute Is an Opportunity For Regulatory Clarity - Bloomberg</t>
+          <t>Disney is set to report earnings after the bell — here's what to expect - CNBC</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMibWh0dHBzOi8vd3d3LmJsb29tYmVyZy5jb20vbmV3cy92aWRlb3MvMjAyMy0wNS0wOC9jb2luYmFzZS1jZW8tc2VjLWRpc3B1dGUtaXMtYW4tb3Bwb3J0dW5pdHktZm9yLWNsYXJpdHktdmlkZW_SAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiR2h0dHBzOi8vd3d3LmNuYmMuY29tLzIwMjMvMDUvMTAvZGlzbmV5LWRpcy1lYXJuaW5ncy1yZXBvcnQtcTItMjAyMy5odG1s0gFLaHR0cHM6Ly93d3cuY25iYy5jb20vYW1wLzIwMjMvMDUvMTAvZGlzbmV5LWRpcy1lYXJuaW5ncy1yZXBvcnQtcTItMjAyMy5odG1s?oc=5</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 11:15:11 GMT</t>
+          <t>Wed, 10 May 2023 16:01:12 GMT</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Bloomberg</t>
+          <t>CNBC</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Coinbase</t>
+          <t>Disney</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -3871,27 +3871,27 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Intel Comments on New Layoffs, Budget Cuts in Client CPU and Data Center Groups - Tom's Hardware</t>
+          <t>Disney Animation Immersive Experience to Land in Los Angeles - Yahoo Entertainment</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMie2h0dHBzOi8vd3d3LnRvbXNoYXJkd2FyZS5jb20vbmV3cy9pbnRlbC1jb21tZW50cy1vbi1yZXBvcnRzLW9mLW5ldy1sYXlvZmZzLWJ1ZGdldC1jdXRzLWluLWNsaWVudC1jcHUtYW5kLWRhdGEtY2VudGVyLWdyb3Vwc9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiXWh0dHBzOi8vd3d3LnlhaG9vLmNvbS9lbnRlcnRhaW5tZW50L2Rpc25leS1hbmltYXRpb24taW1tZXJzaXZlLWV4cGVyaWVuY2UtbGFuZC0xNjI0NDM1OTYuaHRtbNIBZWh0dHBzOi8vd3d3LnlhaG9vLmNvbS9hbXBodG1sL2VudGVydGFpbm1lbnQvZGlzbmV5LWFuaW1hdGlvbi1pbW1lcnNpdmUtZXhwZXJpZW5jZS1sYW5kLTE2MjQ0MzU5Ni5odG1s?oc=5</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 12:00:42 GMT</t>
+          <t>Wed, 10 May 2023 16:24:43 GMT</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Tom's Hardware</t>
+          <t>Yahoo Entertainment</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>Disney</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -3906,32 +3906,32 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Intel plans fresh round of layoffs, other cost cuts - OregonLive</t>
+          <t>Club meeting recap: Stocks mixed, cloud holdings, Disney - CNBC</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiaWh0dHBzOi8vd3d3Lm9yZWdvbmxpdmUuY29tL3NpbGljb24tZm9yZXN0LzIwMjMvMDUvaW50ZWwtcGxhbnMtZnJlc2gtcm91bmQtb2YtbGF5b2Zmcy1vdGhlci1jb3N0LWN1dHMuaHRtbNIBeGh0dHBzOi8vd3d3Lm9yZWdvbmxpdmUuY29tL3NpbGljb24tZm9yZXN0LzIwMjMvMDUvaW50ZWwtcGxhbnMtZnJlc2gtcm91bmQtb2YtbGF5b2Zmcy1vdGhlci1jb3N0LWN1dHMuaHRtbD9vdXRwdXRUeXBlPWFtcA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiW2h0dHBzOi8vd3d3LmNuYmMuY29tLzIwMjMvMDUvMTAvY2x1Yi1tZWV0aW5nLXJlY2FwLXN0b2Nrcy1taXhlZC1jbG91ZC1ob2xkaW5ncy1kaXNuZXktLmh0bWzSAQA?oc=5</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:34:00 GMT</t>
+          <t>Wed, 10 May 2023 15:44:45 GMT</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>OregonLive</t>
+          <t>CNBC</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>Disney</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -3941,27 +3941,27 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Intel Announces Layoffs After Paying $1.5 Billion In Q1 Dividends - Wccftech</t>
+          <t>Walt Disney (DIS) Q2 2023 Earnings: What to Expect - Nasdaq</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiVmh0dHBzOi8vd2NjZnRlY2guY29tL2ludGVsLWFubm91bmNlcy1sYXlvZmZzLWFmdGVyLXBheWluZy0xLTUtYmlsbGlvbi1pbi1xMS1kaXZpZGVuZHMv0gFaaHR0cHM6Ly93Y2NmdGVjaC5jb20vaW50ZWwtYW5ub3VuY2VzLWxheW9mZnMtYWZ0ZXItcGF5aW5nLTEtNS1iaWxsaW9uLWluLXExLWRpdmlkZW5kcy9hbXAv?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiT2h0dHBzOi8vd3d3Lm5hc2RhcS5jb20vYXJ0aWNsZXMvd2FsdC1kaXNuZXktZGlzLXEyLTIwMjMtZWFybmluZ3Mtd2hhdC10by1leHBlY3TSAVNodHRwczovL3d3dy5uYXNkYXEuY29tL2FydGljbGVzL3dhbHQtZGlzbmV5LWRpcy1xMi0yMDIzLWVhcm5pbmdzLXdoYXQtdG8tZXhwZWN0P2FtcA?oc=5</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:32:00 GMT</t>
+          <t>Wed, 10 May 2023 11:36:15 GMT</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>Wccftech</t>
+          <t>Nasdaq</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>Disney</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -3976,32 +3976,32 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Key intel on all 32 teams after the 2023 NFL draft: Buzz, fits, needs - ESPN - ESPN</t>
+          <t>DeSantis won the first round against Disney: He should have walked away - The Hill</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMikgFodHRwczovL3d3dy5lc3BuLmNvbS9uZmwvaW5zaWRlci9kcmFmdDIwMjMvaW5zaWRlci9zdG9yeS9fL2lkLzM3NDYxMDU2L2tleS1pbnRlbC1hbGwtMzItdGVhbXMtMjAyMy1uZmwtZHJhZnQtYnV6ei1kZXB0aC1jaGFydC1maXRzLXRlYW0tbmVlZHMtbmV4dNIBnwFodHRwczovL3d3dy5lc3BuLmNvbS9uZmwvaW5zaWRlci9kcmFmdDIwMjMvaW5zaWRlci9zdG9yeS9fL2lkLzM3NDYxMDU2L2tleS1pbnRlbC1hbGwtMzItdGVhbXMtMjAyMy1uZmwtZHJhZnQtYnV6ei1kZXB0aC1jaGFydC1maXRzLXRlYW0tbmVlZHMtbmV4dD9wbGF0Zm9ybT1hbXA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMidGh0dHBzOi8vdGhlaGlsbC5jb20vb3Bpbmlvbi9jYW1wYWlnbi8zOTk1NjcyLWRlc2FudGlzLXdvbi10aGUtZmlyc3Qtcm91bmQtYWdhaW5zdC1kaXNuZXktaGUtc2hvdWxkLWhhdmUtd2Fsa2VkLWF3YXkv0gF4aHR0cHM6Ly90aGVoaWxsLmNvbS9vcGluaW9uL2NhbXBhaWduLzM5OTU2NzItZGVzYW50aXMtd29uLXRoZS1maXJzdC1yb3VuZC1hZ2FpbnN0LWRpc25leS1oZS1zaG91bGQtaGF2ZS13YWxrZWQtYXdheS9hbXAv?oc=5</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 11:00:00 GMT</t>
+          <t>Wed, 10 May 2023 14:00:00 GMT</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>ESPN</t>
+          <t>The Hill</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>Disney</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>negative</t>
         </is>
       </c>
     </row>
@@ -4011,32 +4011,32 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Which is Better After AMD and Intel Posted Lower Sales - Baystreet.ca</t>
+          <t>Ever dreamed of being in an animated Disney movie? This immersive exhibit is for you - Yahoo News</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiY2h0dHBzOi8vd3d3LmJheXN0cmVldC5jYS9zdG9ja3N0b3dhdGNoLzE1MTk0L1doaWNoLWlzLUJldHRlci1BZnRlci1BTUQtYW5kLUludGVsLVBvc3RlZC1Mb3dlci1TYWxlc9IBSGh0dHBzOi8vd3d3LmJheXN0cmVldC5jYS9hbXAvYXJ0aWNsZXMvc3RvY2tzdG93YXRjaC5hc3B4P2FydGljbGVpZD04NzI5NA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiSGh0dHBzOi8vbmV3cy55YWhvby5jb20vZXZlci1kcmVhbWVkLWJlaW5nLWFuaW1hdGVkLWRpc25leS0xNjA2MTMzNTkuaHRtbNIBUGh0dHBzOi8vbmV3cy55YWhvby5jb20vYW1waHRtbC9ldmVyLWRyZWFtZWQtYmVpbmctYW5pbWF0ZWQtZGlzbmV5LTE2MDYxMzM1OS5odG1s?oc=5</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:26:00 GMT</t>
+          <t>Wed, 10 May 2023 16:06:13 GMT</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>Baystreet.ca</t>
+          <t>Yahoo News</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>Disney</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -4046,32 +4046,32 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>The Gold Standard: The latest intel on Notre Dame recruiting - On3.com</t>
+          <t>Disney Junior Live On Tour: Costume Palooza to 'Dress Up' Chevy ... - New York State Fair</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMikgFodHRwczovL3d3dy5vbjMuY29tL3RlYW1zL25vdHJlLWRhbWUtZmlnaHRpbmctaXJpc2gvbmV3cy90aGUtZ29sZC1zdGFuZGFyZC1pbnRlbC1vbi1ub3RyZS1kYW1lcy1maXJzdC1zZXZlbi1kYXlzLWZvci10aGUtc3ByaW5nLWV2YWx1YXRpb24tcGVyaW9kL9IBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMif2h0dHBzOi8vbnlzZmFpci5ueS5nb3YvZGlzbmV5LWp1bmlvci1saXZlLW9uLXRvdXItY29zdHVtZS1wYWxvb3phLXRvLWRyZXNzLXVwLWNoZXZ5LWNvdXJ0LWR1cmluZy10aGUtZ3JlYXQtbmV3LXlvcmstc3RhdGUtZmFpci_SAQA?oc=5</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:52:37 GMT</t>
+          <t>Wed, 10 May 2023 13:45:03 GMT</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>On3.com</t>
+          <t>New York State Fair</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>Disney</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>neutral</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -4081,27 +4081,27 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Global Notebook PC Market Forecast Report 2022-2023 &amp; 2027 ... - GlobeNewswire</t>
+          <t>The 83rd Annual Peabody Awards – Winners from The Walt Disney ... - Laughing Place</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMimwFodHRwczovL3d3dy5nbG9iZW5ld3N3aXJlLmNvbS9uZXdzLXJlbGVhc2UvMjAyMy8wNS8wOC8yNjYzMDI4LzAvZW4vR2xvYmFsLU5vdGVib29rLVBDLU1hcmtldC1Gb3JlY2FzdC1SZXBvcnQtMjAyMi0yMDIzLTIwMjctRmVhdHVyaW5nLUFNRC1JbnRlbC1OdmlkaWEuaHRtbNIBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiS2h0dHBzOi8vd3d3LmxhdWdoaW5ncGxhY2UuY29tL3cvbmV3cy8yMDIzLzA1LzEwLzgzcmQtcGVhYm9keS1hd2FyZC13aW5uZXJzL9IBAA?oc=5</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 08:18:37 GMT</t>
+          <t>Wed, 10 May 2023 14:38:25 GMT</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>GlobeNewswire</t>
+          <t>Laughing Place</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Intel</t>
+          <t>Disney</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
@@ -4116,32 +4116,32 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>AMD's 'Ryzen Burnout' Fixes Reportedly Plagued With Bugs - Tom's Hardware</t>
+          <t>Clyde's Hot Chicken Now Open in Downtown Disney District at ... - DAPS MAGIC</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiPWh0dHBzOi8vd3d3LnRvbXNoYXJkd2FyZS5jb20vbmV3cy9yeXplbi1idXJub3V0LWZpeC0xMDA3LWJ1Z3PSAQA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMia2h0dHBzOi8vZGFwc21hZ2ljLmNvbS8yMDIzLzA1L2NseWRlcy1ob3QtY2hpY2tlbi1ub3ctb3Blbi1pbi1kb3dudG93bi1kaXNuZXktZGlzdHJpY3QtYXQtZGlzbmV5bGFuZC1yZXNvcnQv0gEA?oc=5</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:54:52 GMT</t>
+          <t>Wed, 10 May 2023 07:14:41 GMT</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>Tom's Hardware</t>
+          <t>DAPS MAGIC</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Disney</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>negative</t>
+          <t>positive</t>
         </is>
       </c>
     </row>
@@ -4151,27 +4151,27 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>AMD Ryzen 9 7900X3D gets 10% retailer discount just two months after launch - VideoCardz.com</t>
+          <t>Man Goes on Stealing Spree at Disney Springs, Found with Stolen ... - WDW News Today</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiZmh0dHBzOi8vdmlkZW9jYXJkei5jb20vbmV3ei9hbWQtcnl6ZW4tOS03OTAweDNkLWdldHMtMTAtcmV0YWlsZXItZGlzY291bnQtanVzdC10d28tbW9udGhzLWFmdGVyLWxhdW5jaNIBAA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiQWh0dHBzOi8vd2R3bnQuY29tLzIwMjMvMDUvbWFuLXN0ZWFsaW5nLXNwcmVlLWRpc25leS1zcHJpbmdzLTIwMjMv0gEA?oc=5</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 13:07:00 GMT</t>
+          <t>Wed, 10 May 2023 15:54:56 GMT</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>VideoCardz.com</t>
+          <t>WDW News Today</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Disney</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4186,32 +4186,32 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Bag An AMD Ryzen 9 7950X3D CPU For $70 Off And More Tasty Chip Deals - Hot Hardware</t>
+          <t>Disney Dreamlight Valley Reveals Helpful New Item For Update 5 - GameRant</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiTGh0dHBzOi8vaG90aGFyZHdhcmUuY29tL25ld3MvYW1kLXJ5emVuLTktNzk1MHgzZC1jcHUtNzAtb2ZmLXRhc3R5LWNoaXAtZGVhbHPSAVBodHRwczovL2FtcC5ob3RoYXJkd2FyZS5jb20vbmV3cy9hbWQtcnl6ZW4tOS03OTUweDNkLWNwdS03MC1vZmYtdGFzdHktY2hpcC1kZWFscw?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMiS2h0dHBzOi8vZ2FtZXJhbnQuY29tL2Rpc25leS1kcmVhbWxpZ2h0LXZhbGxleS11cGRhdGUtNS1uZXctaXRlbXMtbWFubmVxdWluL9IBAA?oc=5</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 14:18:00 GMT</t>
+          <t>Wed, 10 May 2023 16:13:00 GMT</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Hot Hardware</t>
+          <t>GameRant</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>AMD</t>
+          <t>Disney</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>positive</t>
+          <t>neutral</t>
         </is>
       </c>
     </row>
@@ -4221,30 +4221,1115 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>AMD Stock: Still Waiting To Buy (NASDAQ:AMD) - Seeking Alpha</t>
+          <t>'Andor': Tony Gilroy Defies Disney Mandate &amp; Has Ceased All ... - The Playlist</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>https://news.google.com/rss/articles/CBMiQWh0dHBzOi8vc2Vla2luZ2FscGhhLmNvbS9hcnRpY2xlLzQ2MDE1MDUtYW1kLXN0aWxsLXdhaXRpbmctdG8tYnV50gEA?oc=5</t>
+          <t>https://news.google.com/rss/articles/CBMifWh0dHBzOi8vdGhlcGxheWxpc3QubmV0L2FuZG9yLXRvbnktZ2lscm95LWRlZmllcy1kaXNuZXktbWFuZGF0ZS1oYXMtY2Vhc2VkLWFsbC1zaG93cnVubmluZy1kdXRpZXMtZHVyaW5nLXdnYS1zdHJpa2UtMjAyMzA1MTAv0gEA?oc=5</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Mon, 08 May 2023 14:07:18 GMT</t>
+          <t>Wed, 10 May 2023 14:40:15 GMT</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
+          <t>The Playlist</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Disney</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Shopify Inc. Cl A stock falls Tuesday, underperforms market - MarketWatch</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMidWh0dHBzOi8vd3d3Lm1hcmtldHdhdGNoLmNvbS9kYXRhLW5ld3Mvc2hvcGlmeS1pbmMtY2wtYS1zdG9jay1mYWxscy10dWVzZGF5LXVuZGVycGVyZm9ybXMtbWFya2V0LWQzNWQ2MmVmLWM4ZGY0M2E1OGFlOdIBeWh0dHBzOi8vd3d3Lm1hcmtldHdhdGNoLmNvbS9hbXAvZGF0YS1uZXdzL3Nob3BpZnktaW5jLWNsLWEtc3RvY2stZmFsbHMtdHVlc2RheS11bmRlcnBlcmZvcm1zLW1hcmtldC1kMzVkNjJlZi1jOGRmNDNhNThhZTk?oc=5</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Tue, 09 May 2023 20:35:00 GMT</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>MarketWatch</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Shopify</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Chrissy Teigen debuts Cravings bakery and pop-up in partnership ... - Bake</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMic2h0dHBzOi8vd3d3LmJha2VtYWcuY29tL2FydGljbGVzLzE3NDkxLWNocmlzc3ktdGVpZ2VuLWRlYnV0cy1jcmF2aW5ncy1iYWtlcnktYW5kLXBvcC11cC1pbi1wYXJ0bmVyc2hpcC13aXRoLXNob3BpZnnSAQA?oc=5</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 16:16:58 GMT</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Bake</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Shopify</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Netflix Releases Arnold Schwarzenegger Documentary Trailer - Hollywood Reporter</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiamh0dHBzOi8vd3d3LmhvbGx5d29vZHJlcG9ydGVyLmNvbS90di90di1uZXdzL25ldGZsaXgtYXJub2xkLXNjaHdhcnplbmVnZ2VyLWRvY3VtZW50YXJ5LXRyYWlsZXItMTIzNTQ4MzMxNS_SAW5odHRwczovL3d3dy5ob2xseXdvb2RyZXBvcnRlci5jb20vdHYvdHYtbmV3cy9uZXRmbGl4LWFybm9sZC1zY2h3YXJ6ZW5lZ2dlci1kb2N1bWVudGFyeS10cmFpbGVyLTEyMzU0ODMzMTUvYW1wLw?oc=5</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 16:00:17 GMT</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Hollywood Reporter</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Netflix</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Arnold Schwarzenegger Gets Candid About Politics and Scandals in Trailer for New Netflix Doc - Yahoo Entertainment</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiXWh0dHBzOi8vd3d3LnlhaG9vLmNvbS9lbnRlcnRhaW5tZW50L2Fybm9sZC1zY2h3YXJ6ZW5lZ2dlci1nZXRzLWNhbmRpZC1wb2xpdGljcy0xNjAyMjI0MTIuaHRtbNIBZWh0dHBzOi8vd3d3LnlhaG9vLmNvbS9hbXBodG1sL2VudGVydGFpbm1lbnQvYXJub2xkLXNjaHdhcnplbmVnZ2VyLWdldHMtY2FuZGlkLXBvbGl0aWNzLTE2MDIyMjQxMi5odG1s?oc=5</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 16:02:22 GMT</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Yahoo Entertainment</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Netflix</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Spotify, Netflix Subscriptions Could Help Buy A House - UPROXX</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiRmh0dHBzOi8vdXByb3h4LmNvbS9tdXNpYy9zcG90aWZ5LW5ldGZsaXgtc3Vic2NyaXB0aW9ucy1oZWxwLWJ1eS1ob3VzZS_SAQA?oc=5</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 15:47:31 GMT</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>UPROXX</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Netflix</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Wanda Sykes's 'I'm an Entertainer' Netflix Special Trailer - Vulture</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiUmh0dHBzOi8vd3d3LnZ1bHR1cmUuY29tL2FydGljbGUvd2FuZGEtc3lrZXMtaW0tYW4tZW50ZXJ0YWluZXItbmV0ZmxpeC10cmFpbGVyLmh0bWzSAQA?oc=5</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 16:00:04 GMT</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Vulture</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Netflix</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>'Choose Love' Netflix Interactive Romcom Sets August 2023 ... - What's on Netflix</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMia2h0dHBzOi8vd3d3LndoYXRzLW9uLW5ldGZsaXguY29tL25ld3MvY2hvb3NlLWxvdmUtbmV0ZmxpeC1pbnRlcmFjdGl2ZS1yb21jb20tc2V0cy1hdWd1c3QtMjAyMy1yZWxlYXNlLWRhdGUv0gEA?oc=5</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 14:53:13 GMT</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>What's on Netflix</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Netflix</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Missing: Dead or Alive? – Review | Netflix - Heavenofhorror.com</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiRWh0dHBzOi8vd3d3LmhlYXZlbm9maG9ycm9yLmNvbS9yZXZpZXdzL21pc3NpbmctZGVhZC1vci1hbGl2ZS1uZXRmbGl4L9IBAA?oc=5</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 09:42:18 GMT</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Heavenofhorror.com</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Netflix</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>'Pokémon Ultimate Journeys: The Series' Part 3 Coming to Netflix in ... - What's on Netflix</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMidGh0dHBzOi8vd3d3LndoYXRzLW9uLW5ldGZsaXguY29tL25ld3MvcG9rZW1vbi11bHRpbWF0ZS1qb3VybmV5cy10aGUtc2VyaWVzLXBhcnQtMy1pcy1jb21pbmctdG8tbmV0ZmxpeC1pbi1qdW5lLTIwMjMv0gEA?oc=5</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 15:56:40 GMT</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>What's on Netflix</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Netflix</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>What time is Black Knight coming to Netflix? - Netflix Life</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiPmh0dHBzOi8vbmV0ZmxpeGxpZmUuY29tLzIwMjMvMDUvMTAvYmxhY2sta25pZ2h0LXJlbGVhc2UtdGltZXMv0gEA?oc=5</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 12:00:51 GMT</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Netflix Life</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Netflix</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Netflix Tells Arnold Schwarzenegger's Life Story in 3-Part ... - youralaskalink</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiwQFodHRwczovL3d3dy55b3VyYWxhc2thbGluay5jb20vYXJ0c19hbmRfZW50ZXJ0YWlubWVudC9lbnRlcnRhaW5tZW50L25ldGZsaXgtdGVsbHMtYXJub2xkLXNjaHdhcnplbmVnZ2VyLXMtbGlmZS1zdG9yeS1pbi0zLXBhcnQtZG9jdXNlcmllcy12aWRlby9hcnRpY2xlX2UxZWY1NjBhLTIxYmMtNTlkMS05NzE2LWUxM2JiZWFiZTA4NS5odG1s0gEA?oc=5</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 16:00:56 GMT</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>youralaskalink</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Netflix</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Roblox stock moves higher as earnings show bookings acceleration - MarketWatch</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiXGh0dHBzOi8vd3d3Lm1hcmtldHdhdGNoLmNvbS9zdG9yeS9yb2Jsb3gtc3RvY2stc2lua3MtYWZ0ZXItZWFybmluZ3MtYXMtbG9zc2VzLXN3ZWxsLTY4ZjNhNDE10gFgaHR0cHM6Ly93d3cubWFya2V0d2F0Y2guY29tL2FtcC9zdG9yeS9yb2Jsb3gtc3RvY2stc2lua3MtYWZ0ZXItZWFybmluZ3MtYXMtbG9zc2VzLXN3ZWxsLTY4ZjNhNDE1?oc=5</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 12:15:00 GMT</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>MarketWatch</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Roblox</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Roblox Bleach Era codes (May 2023): Free XP Boosts, Resets, more - Dexerto</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiY2h0dHBzOi8vd3d3LmRleGVydG8uY29tL2dhbWluZy9yb2Jsb3gtYmxlYWNoLWVyYS1jb2Rlcy1tYXktMjAyMy1mcmVlLXhwLWJvb3N0cy1yZXNldHMtbW9yZS0yMTQwOTkwL9IBAA?oc=5</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 16:13:34 GMT</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Dexerto</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Roblox</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Unlock the Fun: How to Make Custom Matches in Roblox Bedwars - Outsider Gaming</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiRWh0dHBzOi8vb3V0c2lkZXJnYW1pbmcuY29tL2hvdy10by1tYWtlLWN1c3RvbS1tYXRjaGVzLXJvYmxveC1iZWR3YXJzL9IBAA?oc=5</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 16:12:56 GMT</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Outsider Gaming</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Roblox</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Unleash Your Inner Designer: How to Make Pants on Roblox and ... - Outsider Gaming</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiRWh0dHBzOi8vb3V0c2lkZXJnYW1pbmcuY29tL2hvdy10by1tYWtlLXBhbnRzLW9uLXJvYmxveC1hbmQtc3RhbmQtb3V0L9IBAA?oc=5</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 16:45:09 GMT</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Outsider Gaming</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Roblox</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>How to Make a Tycoon on Roblox in 2022: Your Ultimate Guide to ... - Outsider Gaming</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiOmh0dHBzOi8vb3V0c2lkZXJnYW1pbmcuY29tL2hvdy10by1tYWtlLWEtdHljb29uLW9uLXJvYmxveC_SAQA?oc=5</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 16:03:58 GMT</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Outsider Gaming</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Roblox</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Roblox GAAP EPS of -$0.44 misses by $0.05, bookings of $773.82M ... - Seeking Alpha</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMi3QFodHRwczovL3NlZWtpbmdhbHBoYS5jb20vbmV3cy8zOTY5MDE0LXJvYmxveC1nYWFwLWVwcy1vZi0wNDQtbWlzc2VzLWJ5LTAwNS1ib29raW5ncy1vZi03NzM4Mm0tYmVhdHMtYnktODQ1bT9zb3VyY2U9Y29udGVudF90eXBlJTNBcmVhY3QlN0NmaXJzdF9sZXZlbF91cmwlM0Fob21lJTdDc2VjdGlvbiUzQWluZGljZXMlN0NzZWN0aW9uX2Fzc2V0JTNBbGF0ZXN0X25ld3MlN0NsaW5lJTNBMdIBAA?oc=5</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 12:04:33 GMT</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
           <t>Seeking Alpha</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Roblox</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Roblox Sling Codes (May 2023) - Dot Esports</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiNGh0dHBzOi8vZG90ZXNwb3J0cy5jb20vY29kZXMvbmV3cy9yb2Jsb3gtc2xpbmctY29kZXPSAQA?oc=5</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 15:58:50 GMT</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Dot Esports</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Roblox</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Roblox Reports First Quarter 2023 Financial Results - StreetInsider.com</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMibGh0dHA6Ly93d3cuc3RyZWV0aW5zaWRlci5jb20vQnVzaW5lc3MrV2lyZS9Sb2Jsb3grUmVwb3J0cytGaXJzdCtRdWFydGVyKzIwMjMrRmluYW5jaWFsK1Jlc3VsdHMvMjE2NDAzNTkuaHRtbNIBAA?oc=5</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 12:06:45 GMT</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>StreetInsider.com</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Roblox</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Uniswap Volume Leapfrogs Coinbase Thanks to Pepe and Meme Coins - Decrypt</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiS2h0dHBzOi8vZGVjcnlwdC5jby8xMzk1OTQvdW5pc3dhcC12b2x1bWUtbGVhcGZyb2dzLWNvaW5iYXNlLXBlcGUtbWVtZS1jb2luc9IBUWh0dHBzOi8vZGVjcnlwdC5jby8xMzk1OTQvdW5pc3dhcC12b2x1bWUtbGVhcGZyb2dzLWNvaW5iYXNlLXBlcGUtbWVtZS1jb2lucz9hbXA9MQ?oc=5</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 16:35:40 GMT</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Decrypt</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Is Grayscale's Partnership With Coinbase On The Chopping Block ... - Investing.com UK</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMihwFodHRwczovL3VrLmludmVzdGluZy5jb20vbmV3cy9zdG9jay1tYXJrZXQtbmV3cy9pcy1ncmF5c2NhbGVzLXBhcnRuZXJzaGlwLXdpdGgtY29pbmJhc2Utb24tdGhlLWNob3BwaW5nLWJsb2NrLXNlYy1kcmFtYS11bmZvbGRzLTMwMTU4MDDSAZMBaHR0cHM6Ly9tLnVrLmludmVzdGluZy5jb20vbmV3cy9zdG9jay1tYXJrZXQtbmV3cy9pcy1ncmF5c2NhbGVzLXBhcnRuZXJzaGlwLXdpdGgtY29pbmJhc2Utb24tdGhlLWNob3BwaW5nLWJsb2NrLXNlYy1kcmFtYS11bmZvbGRzLTMwMTU4MDA_YW1wTW9kZT0x?oc=5</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 15:36:00 GMT</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Investing.com UK</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>HCW analyst raises price target on Coinbase stock after strong Q1 - CoinJournal</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiRmh0dHBzOi8vY29pbmpvdXJuYWwubmV0L25ld3MvYnV5LWNvaW5iYXNlLXN0b2NrLW9uLXExLWVhcm5pbmdzLXJlcG9ydC_SAQA?oc=5</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 16:32:16 GMT</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>CoinJournal</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Coinbase</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Intel Corporation: Slow And Steady Wins The Race (NASDAQ:INTC) - Seeking Alpha</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMicGh0dHBzOi8vc2Vla2luZ2FscGhhLmNvbS9hcnRpY2xlLzQ2MDI1MTAtaW50ZWwtY29ycG9yYXRpb24tc2xvdy1hbmQtc3RlYWR5LXdpbnMtdGhlLXJhY2U_c291cmNlPWZlZWRfc3ltYm9sX2ludGPSAQA?oc=5</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 15:53:38 GMT</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Seeking Alpha</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Intel to cut 57 more jobs from Santa Clara HQ - Silicon Valley Business Journal - The Business Journals</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiZGh0dHBzOi8vd3d3LmJpempvdXJuYWxzLmNvbS9zYW5qb3NlL25ld3MvMjAyMy8wNS8wOS9pbnRlbC10by1jdXQtNTctbW9yZS13b3JrZXJzLWluLXNhbnRhLWNsYXJhLmh0bWzSAQA?oc=5</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Tue, 09 May 2023 22:25:00 GMT</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>The Business Journals</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Intel Corp. stock underperforms Tuesday when compared to competitors - MarketWatch</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMif2h0dHBzOi8vd3d3Lm1hcmtldHdhdGNoLmNvbS9kYXRhLW5ld3MvaW50ZWwtY29ycC1zdG9jay11bmRlcnBlcmZvcm1zLXR1ZXNkYXktd2hlbi1jb21wYXJlZC10by1jb21wZXRpdG9ycy02MWY0MmI0ZS05ZTZiMDY5NjcwZjbSAYMBaHR0cHM6Ly93d3cubWFya2V0d2F0Y2guY29tL2FtcC9kYXRhLW5ld3MvaW50ZWwtY29ycC1zdG9jay11bmRlcnBlcmZvcm1zLXR1ZXNkYXktd2hlbi1jb21wYXJlZC10by1jb21wZXRpdG9ycy02MWY0MmI0ZS05ZTZiMDY5NjcwZjY?oc=5</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Tue, 09 May 2023 21:02:00 GMT</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>MarketWatch</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>MSI breach-related Intel Boot Guard private key leak under ... - SC Media</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMifWh0dHBzOi8vd3d3LnNjbWFnYXppbmUuY29tL2JyaWVmL2lkZW50aXR5LWFuZC1hY2Nlc3MvbXNpLWJyZWFjaC1yZWxhdGVkLWludGVsLWJvb3QtZ3VhcmQtcHJpdmF0ZS1rZXktbGVhay11bmRlci1pbnZlc3RpZ2F0aW9u0gEA?oc=5</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 11:00:00 GMT</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>SC Media</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>negative</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>The excellent Acer Chromebook Spin 714 with 12th Gen Intel i5 just ... - Laptop Mag</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMidmh0dHBzOi8vd3d3LmxhcHRvcG1hZy5jb20vbmV3cy90aGUtZXhjZWxsZW50LWFjZXItY2hyb21lYm9vay1zcGluLTcxNC13aXRoLTEydGgtZ2VuLWludGVsLWk1LWp1c3QtY3Jhc2hlZC10by1kb2xsYXI1MjnSAQA?oc=5</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 16:23:00 GMT</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Laptop Mag</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Lenovo readies ThinkStation P3 Tiny thin workstations with up to an ... - Notebookcheck.net</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMilAFodHRwczovL3d3dy5ub3RlYm9va2NoZWNrLm5ldC9MZW5vdm8tcmVhZGllcy1UaGlua1N0YXRpb24tUDMtVGlueS10aGluLXdvcmtzdGF0aW9ucy13aXRoLXVwLXRvLWFuLUludGVsLWk5LTEzOTAwLWFuZC1OdmlkaWEtVDEwMDAtOC1HQi43MTYyODEuMC5odG1s0gEA?oc=5</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 13:44:47 GMT</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Notebookcheck.net</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>positive</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>What's Going On With AMD Stock Wednesday - Yahoo Finance</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMiTWh0dHBzOi8vZmluYW5jZS55YWhvby5jb20vbmV3cy93aGF0cy1nb2luZy1hbWQtc3RvY2std2VkbmVzZGF5LTE1NDcyNDkxOC5odG1s0gFVaHR0cHM6Ly9maW5hbmNlLnlhaG9vLmNvbS9hbXBodG1sL25ld3Mvd2hhdHMtZ29pbmctYW1kLXN0b2NrLXdlZG5lc2RheS0xNTQ3MjQ5MTguaHRtbA?oc=5</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 15:47:24 GMT</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Yahoo Finance</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
         <is>
           <t>AMD</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>(AMD) - Analyzing Advanced Micro Devices's Short Interest By ... - Investing.com UK</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMibWh0dHBzOi8vdWsuaW52ZXN0aW5nLmNvbS9uZXdzL3N0b2NrLW1hcmtldC1uZXdzL2FtZC0tYW5hbHl6aW5nLWFkdmFuY2VkLW1pY3JvLWRldmljZXNzLXNob3J0LWludGVyZXN0LTMwMTU4MDfSAXlodHRwczovL20udWsuaW52ZXN0aW5nLmNvbS9uZXdzL3N0b2NrLW1hcmtldC1uZXdzL2FtZC0tYW5hbHl6aW5nLWFkdmFuY2VkLW1pY3JvLWRldmljZXNzLXNob3J0LWludGVyZXN0LTMwMTU4MDc_YW1wTW9kZT0x?oc=5</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 15:16:00 GMT</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Investing.com UK</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>neutral</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Modern Warfare 2 and Warzone 2 “crash on launch” set to get a fix today for AMD Vega users - Sportskeeda</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>https://news.google.com/rss/articles/CBMicWh0dHBzOi8vd3d3LnNwb3J0c2tlZWRhLmNvbS9lc3BvcnRzL25ld3MtbW9kZXJuLXdhcmZhcmUtMi13YXJ6b25lLTItY3Jhc2gtbGF1bmNoLXNldC1nZXQtZml4LXRvZGF5LWFtZC12ZWdhLXVzZXJz0gF1aHR0cHM6Ly93d3cuc3BvcnRza2VlZGEuY29tL2FtcC9lc3BvcnRzL25ld3MtbW9kZXJuLXdhcmZhcmUtMi13YXJ6b25lLTItY3Jhc2gtbGF1bmNoLXNldC1nZXQtZml4LXRvZGF5LWFtZC12ZWdhLXVzZXJz?oc=5</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Wed, 10 May 2023 12:03:00 GMT</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Sportskeeda</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
         <is>
           <t>positive</t>
         </is>
